--- a/Bibsam_tidskriftslistor/scifree_data_cambridge.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_cambridge.xlsx
@@ -4437,28 +4437,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4736,7 +4715,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G371"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Bibsam_tidskriftslistor/scifree_data_cambridge.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_cambridge.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_7B88690BC4D74E528034C1E782C54DD523A87A0D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04F65058-84E3-4D20-AE19-0CAE36A66E50}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_7B88690BC4D74E528034C1E782C54DD523A87A0D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC9FDA59-FD1D-4AD2-9808-670A5BF35E68}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="1628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2820" uniqueCount="1598">
   <si>
     <t>Open</t>
   </si>
@@ -4519,27 +4519,12 @@
     <t>Animal Welfare</t>
   </si>
   <si>
-    <t>Research Directions: Bioelectronics</t>
-  </si>
-  <si>
-    <t>Research Directions: Biotechnology Design</t>
-  </si>
-  <si>
-    <t>Research Directions: Cyber-Physical Systems</t>
-  </si>
-  <si>
-    <t>Cambridge Prisms: Coastal Futures</t>
-  </si>
-  <si>
     <t>Critical Pakistan Studies</t>
   </si>
   <si>
     <t>Economic and Labour Relations Review</t>
   </si>
   <si>
-    <t>Cambridge Prisms: Extinction</t>
-  </si>
-  <si>
     <t>Journal of Financial Literacy and Wellbeing</t>
   </si>
   <si>
@@ -4549,48 +4534,18 @@
     <t>Journal of Law and Courts</t>
   </si>
   <si>
-    <t>Research Directions: One Health</t>
-  </si>
-  <si>
-    <t>Cambridge Prisms: Precision Medicine</t>
-  </si>
-  <si>
-    <t>Cambridge Prisms: Plastics</t>
-  </si>
-  <si>
     <t>Programmable Materials</t>
   </si>
   <si>
-    <t>Research Directions: Quantum Technologies</t>
-  </si>
-  <si>
-    <t>Cambridge Prisms: Water</t>
-  </si>
-  <si>
     <t>0962-7286</t>
   </si>
   <si>
-    <t>2753-8524</t>
-  </si>
-  <si>
-    <t>2752-9452</t>
-  </si>
-  <si>
-    <t>2753-8516</t>
-  </si>
-  <si>
-    <t>2754-7205</t>
-  </si>
-  <si>
     <t>2753-2712</t>
   </si>
   <si>
     <t>1838-2673</t>
   </si>
   <si>
-    <t>2755-0958</t>
-  </si>
-  <si>
     <t>2753-3212</t>
   </si>
   <si>
@@ -4600,48 +4555,18 @@
     <t>2164-6589</t>
   </si>
   <si>
-    <t>2752-9460</t>
-  </si>
-  <si>
-    <t>2752-6143</t>
-  </si>
-  <si>
-    <t>2755-094X</t>
-  </si>
-  <si>
     <t>2752-8073</t>
   </si>
   <si>
-    <t>2752-9444</t>
-  </si>
-  <si>
-    <t>2755-1776</t>
-  </si>
-  <si>
     <t>https://www.cambridge.org/core/journals/animal-welfare</t>
   </si>
   <si>
-    <t>https://www.cambridge.org/core/journals/research-directions-bioelectronics</t>
-  </si>
-  <si>
-    <t>https://www.cambridge.org/core/journals/research-directions-biotechnology-design</t>
-  </si>
-  <si>
-    <t>https://www.cambridge.org/core/journals/research-directions-cyber-physical-systems</t>
-  </si>
-  <si>
-    <t>https://www.cambridge.org/core/journals/cambridge-prisms-coastal-futures</t>
-  </si>
-  <si>
     <t>https://www.cambridge.org/core/journals/critical-pakistan-studies</t>
   </si>
   <si>
     <t>https://www.cambridge.org/core/journals/the-economic-and-labour-relations-review</t>
   </si>
   <si>
-    <t>https://www.cambridge.org/core/journals/cambridge-prisms-extinction</t>
-  </si>
-  <si>
     <t>https://www.cambridge.org/core/journals/journal-of-financial-literacy-and-wellbeing</t>
   </si>
   <si>
@@ -4651,22 +4576,7 @@
     <t>https://www.cambridge.org/core/journals/journal-of-law-and-courts</t>
   </si>
   <si>
-    <t>https://www.cambridge.org/core/journals/research-directions-one-health</t>
-  </si>
-  <si>
-    <t>https://www.cambridge.org/core/journals/cambridge-prisms-precision-medicine</t>
-  </si>
-  <si>
-    <t>https://www.cambridge.org/core/journals/cambridge-prisms-plastics</t>
-  </si>
-  <si>
     <t>https://www.cambridge.org/core/journals/programmable-materials</t>
-  </si>
-  <si>
-    <t>https://www.cambridge.org/core/journals/research-directions-quantum-technologies</t>
-  </si>
-  <si>
-    <t>https://www.cambridge.org/core/journals/cambridge-prisms-water</t>
   </si>
   <si>
     <t>2054-1538</t>
@@ -4959,16 +4869,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{22393F9F-157C-430A-BEB2-159441100FBE}" name="Table2" displayName="Table2" ref="A1:G419" totalsRowShown="0">
-  <autoFilter ref="A1:G419" xr:uid="{22393F9F-157C-430A-BEB2-159441100FBE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FC17C43A-15AF-45CB-801B-2E6281230D16}" name="Table1" displayName="Table1" ref="A1:G409" totalsRowShown="0">
+  <autoFilter ref="A1:G409" xr:uid="{FC17C43A-15AF-45CB-801B-2E6281230D16}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5B718B14-8AE4-48E7-9D8C-B7A544188E30}" name="Imprint"/>
-    <tableColumn id="2" xr3:uid="{00DE10DB-AA6A-4B1C-B8D9-CA845C535CE5}" name="ISSN Electronic"/>
-    <tableColumn id="3" xr3:uid="{7E22D5F5-B86C-41CA-AE0B-F69579C97F34}" name="ISSN Print"/>
-    <tableColumn id="4" xr3:uid="{32CFC8F7-0AD5-401E-ACA6-1A3F451BCE24}" name="Journal Name"/>
-    <tableColumn id="5" xr3:uid="{5506C31A-2B52-44D7-BB62-50B914B164CF}" name="JournalURL"/>
-    <tableColumn id="6" xr3:uid="{C0A4A0BD-0EC7-4A7D-A635-30CF5A205B67}" name="Publishing model"/>
-    <tableColumn id="7" xr3:uid="{3FDCCF16-AF0D-4067-9151-3799AE5AB026}" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{B54319B1-90D0-4F91-8307-F81AD99C07AE}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{2C80EAD1-8283-4E5F-A030-2D78CDB4EBD0}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{65DFF747-DD33-4708-AFEE-7D5730EB7622}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{04561AFA-1FE1-4D55-8125-71396802C7E6}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{4EA20FD2-E4FD-4EED-ABEE-1489FCBA03A1}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{C8ED18BB-1970-496E-8CE6-0519F130FF4B}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{B9780B33-1A8B-47A6-8342-EB64EA53178C}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5236,8 +5146,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A611007-9F47-491A-BB88-EB556AAD2AE1}">
-  <dimension ref="A1:G419"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D8E092-0EC2-4BF0-925E-428BA52D98D2}">
+  <dimension ref="A1:G409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -5713,16 +5623,16 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>1549</v>
+        <v>1519</v>
       </c>
       <c r="C21" t="s">
-        <v>1515</v>
+        <v>1505</v>
       </c>
       <c r="D21" t="s">
         <v>1498</v>
       </c>
       <c r="E21" t="s">
-        <v>1532</v>
+        <v>1512</v>
       </c>
       <c r="F21" t="s">
         <v>0</v>
@@ -6989,16 +6899,19 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>1519</v>
+        <v>274</v>
+      </c>
+      <c r="C77" t="s">
+        <v>275</v>
       </c>
       <c r="D77" t="s">
-        <v>1502</v>
+        <v>276</v>
       </c>
       <c r="E77" t="s">
-        <v>1536</v>
+        <v>277</v>
       </c>
       <c r="F77" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
         <v>1323</v>
@@ -7009,16 +6922,19 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>1522</v>
+        <v>278</v>
+      </c>
+      <c r="C78" t="s">
+        <v>279</v>
       </c>
       <c r="D78" t="s">
-        <v>1505</v>
+        <v>280</v>
       </c>
       <c r="E78" t="s">
-        <v>1539</v>
+        <v>281</v>
       </c>
       <c r="F78" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
         <v>1323</v>
@@ -7029,16 +6945,19 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>1528</v>
+        <v>282</v>
+      </c>
+      <c r="C79" t="s">
+        <v>283</v>
       </c>
       <c r="D79" t="s">
-        <v>1511</v>
+        <v>284</v>
       </c>
       <c r="E79" t="s">
-        <v>1545</v>
+        <v>285</v>
       </c>
       <c r="F79" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
         <v>1323</v>
@@ -7049,16 +6968,19 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>1527</v>
+        <v>286</v>
+      </c>
+      <c r="C80" t="s">
+        <v>287</v>
       </c>
       <c r="D80" t="s">
-        <v>1510</v>
+        <v>288</v>
       </c>
       <c r="E80" t="s">
-        <v>1544</v>
+        <v>289</v>
       </c>
       <c r="F80" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
         <v>1323</v>
@@ -7069,13 +6991,16 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>1531</v>
+        <v>290</v>
+      </c>
+      <c r="C81" t="s">
+        <v>291</v>
       </c>
       <c r="D81" t="s">
-        <v>1514</v>
+        <v>292</v>
       </c>
       <c r="E81" t="s">
-        <v>1548</v>
+        <v>293</v>
       </c>
       <c r="F81" t="s">
         <v>0</v>
@@ -7089,16 +7014,16 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="C82" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="D82" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="E82" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="F82" t="s">
         <v>13</v>
@@ -7112,16 +7037,16 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="C83" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="D83" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="E83" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="F83" t="s">
         <v>13</v>
@@ -7135,16 +7060,16 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="C84" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="D84" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="E84" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="F84" t="s">
         <v>13</v>
@@ -7158,16 +7083,16 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="C85" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="D85" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="E85" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="F85" t="s">
         <v>13</v>
@@ -7181,19 +7106,19 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="C86" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="D86" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="E86" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="F86" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
         <v>1323</v>
@@ -7204,16 +7129,16 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="C87" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="D87" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="E87" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="F87" t="s">
         <v>13</v>
@@ -7227,16 +7152,16 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="C88" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="D88" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="E88" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="F88" t="s">
         <v>13</v>
@@ -7250,16 +7175,16 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="C89" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="D89" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="E89" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="F89" t="s">
         <v>13</v>
@@ -7273,16 +7198,16 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="C90" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="D90" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E90" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="F90" t="s">
         <v>13</v>
@@ -7296,16 +7221,16 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="C91" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="D91" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="E91" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="F91" t="s">
         <v>13</v>
@@ -7319,16 +7244,16 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="C92" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="D92" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="E92" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="F92" t="s">
         <v>13</v>
@@ -7342,16 +7267,16 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="C93" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="D93" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="E93" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="F93" t="s">
         <v>13</v>
@@ -7365,16 +7290,16 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="C94" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="D94" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="E94" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="F94" t="s">
         <v>13</v>
@@ -7388,16 +7313,16 @@
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="C95" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="D95" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="E95" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="F95" t="s">
         <v>13</v>
@@ -7411,16 +7336,16 @@
         <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="C96" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="D96" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E96" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F96" t="s">
         <v>13</v>
@@ -7434,16 +7359,16 @@
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="C97" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="D97" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E97" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="F97" t="s">
         <v>13</v>
@@ -7457,16 +7382,13 @@
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>338</v>
-      </c>
-      <c r="C98" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="D98" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="E98" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="F98" t="s">
         <v>13</v>
@@ -7480,16 +7402,16 @@
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="C99" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="D99" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="E99" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="F99" t="s">
         <v>13</v>
@@ -7503,16 +7425,16 @@
         <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="C100" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="D100" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="E100" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="F100" t="s">
         <v>13</v>
@@ -7526,16 +7448,16 @@
         <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="C101" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="D101" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="E101" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="F101" t="s">
         <v>13</v>
@@ -7549,16 +7471,16 @@
         <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="C102" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="D102" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="E102" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="F102" t="s">
         <v>13</v>
@@ -7572,13 +7494,16 @@
         <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>358</v>
+        <v>377</v>
+      </c>
+      <c r="C103" t="s">
+        <v>378</v>
       </c>
       <c r="D103" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="E103" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="F103" t="s">
         <v>13</v>
@@ -7592,19 +7517,16 @@
         <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>361</v>
-      </c>
-      <c r="C104" t="s">
-        <v>362</v>
+        <v>1506</v>
       </c>
       <c r="D104" t="s">
-        <v>363</v>
+        <v>1499</v>
       </c>
       <c r="E104" t="s">
-        <v>364</v>
+        <v>1513</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G104" t="s">
         <v>1323</v>
@@ -7615,16 +7537,16 @@
         <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="C105" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="D105" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="E105" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="F105" t="s">
         <v>13</v>
@@ -7638,19 +7560,16 @@
         <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>369</v>
-      </c>
-      <c r="C106" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="D106" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="E106" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G106" t="s">
         <v>1323</v>
@@ -7661,19 +7580,16 @@
         <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>373</v>
-      </c>
-      <c r="C107" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D107" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="E107" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G107" t="s">
         <v>1323</v>
@@ -7684,19 +7600,16 @@
         <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>377</v>
-      </c>
-      <c r="C108" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="D108" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="E108" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="F108" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G108" t="s">
         <v>1323</v>
@@ -7707,16 +7620,19 @@
         <v>8</v>
       </c>
       <c r="B109" t="s">
-        <v>1520</v>
+        <v>394</v>
+      </c>
+      <c r="C109" t="s">
+        <v>395</v>
       </c>
       <c r="D109" t="s">
-        <v>1503</v>
+        <v>396</v>
       </c>
       <c r="E109" t="s">
-        <v>1537</v>
+        <v>397</v>
       </c>
       <c r="F109" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
         <v>1323</v>
@@ -7727,16 +7643,16 @@
         <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="C110" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="D110" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="E110" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="F110" t="s">
         <v>13</v>
@@ -7750,16 +7666,19 @@
         <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>385</v>
+        <v>402</v>
+      </c>
+      <c r="C111" t="s">
+        <v>403</v>
       </c>
       <c r="D111" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="E111" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="F111" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G111" t="s">
         <v>1323</v>
@@ -7770,16 +7689,19 @@
         <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>388</v>
+        <v>1345</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1399</v>
       </c>
       <c r="D112" t="s">
-        <v>389</v>
+        <v>1363</v>
       </c>
       <c r="E112" t="s">
-        <v>390</v>
+        <v>1381</v>
       </c>
       <c r="F112" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G112" t="s">
         <v>1323</v>
@@ -7790,16 +7712,19 @@
         <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>391</v>
+        <v>1454</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1469</v>
       </c>
       <c r="D113" t="s">
-        <v>392</v>
+        <v>1436</v>
       </c>
       <c r="E113" t="s">
-        <v>393</v>
+        <v>1487</v>
       </c>
       <c r="F113" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
         <v>1323</v>
@@ -7810,16 +7735,16 @@
         <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="C114" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="D114" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="E114" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="F114" t="s">
         <v>13</v>
@@ -7833,16 +7758,16 @@
         <v>8</v>
       </c>
       <c r="B115" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="C115" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="D115" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="E115" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="F115" t="s">
         <v>13</v>
@@ -7856,16 +7781,16 @@
         <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="C116" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="D116" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="E116" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="F116" t="s">
         <v>13</v>
@@ -7879,16 +7804,16 @@
         <v>8</v>
       </c>
       <c r="B117" t="s">
-        <v>1345</v>
+        <v>418</v>
       </c>
       <c r="C117" t="s">
-        <v>1399</v>
+        <v>419</v>
       </c>
       <c r="D117" t="s">
-        <v>1363</v>
+        <v>420</v>
       </c>
       <c r="E117" t="s">
-        <v>1381</v>
+        <v>421</v>
       </c>
       <c r="F117" t="s">
         <v>13</v>
@@ -7902,16 +7827,13 @@
         <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>1454</v>
-      </c>
-      <c r="C118" t="s">
-        <v>1469</v>
+        <v>1507</v>
       </c>
       <c r="D118" t="s">
-        <v>1436</v>
+        <v>1500</v>
       </c>
       <c r="E118" t="s">
-        <v>1487</v>
+        <v>1514</v>
       </c>
       <c r="F118" t="s">
         <v>13</v>
@@ -7925,16 +7847,16 @@
         <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="C119" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="D119" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="E119" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="F119" t="s">
         <v>13</v>
@@ -7948,16 +7870,16 @@
         <v>8</v>
       </c>
       <c r="B120" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="C120" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="D120" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="E120" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="F120" t="s">
         <v>13</v>
@@ -7971,16 +7893,16 @@
         <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="C121" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="D121" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="E121" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="F121" t="s">
         <v>13</v>
@@ -7994,16 +7916,16 @@
         <v>8</v>
       </c>
       <c r="B122" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="C122" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="D122" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="E122" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="F122" t="s">
         <v>13</v>
@@ -8017,13 +7939,16 @@
         <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>1521</v>
+        <v>438</v>
+      </c>
+      <c r="C123" t="s">
+        <v>439</v>
       </c>
       <c r="D123" t="s">
-        <v>1504</v>
+        <v>440</v>
       </c>
       <c r="E123" t="s">
-        <v>1538</v>
+        <v>441</v>
       </c>
       <c r="F123" t="s">
         <v>13</v>
@@ -8037,16 +7962,16 @@
         <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="C124" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="D124" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="E124" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="F124" t="s">
         <v>13</v>
@@ -8060,16 +7985,16 @@
         <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="C125" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="D125" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="E125" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="F125" t="s">
         <v>13</v>
@@ -8083,19 +8008,16 @@
         <v>8</v>
       </c>
       <c r="B126" t="s">
-        <v>430</v>
-      </c>
-      <c r="C126" t="s">
-        <v>431</v>
+        <v>1336</v>
       </c>
       <c r="D126" t="s">
-        <v>432</v>
+        <v>1326</v>
       </c>
       <c r="E126" t="s">
-        <v>433</v>
+        <v>1422</v>
       </c>
       <c r="F126" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G126" t="s">
         <v>1323</v>
@@ -8106,19 +8028,19 @@
         <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="C127" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="D127" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="E127" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="F127" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G127" t="s">
         <v>1323</v>
@@ -8129,19 +8051,19 @@
         <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="C128" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="D128" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="E128" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G128" t="s">
         <v>1323</v>
@@ -8152,19 +8074,19 @@
         <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="C129" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="D129" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="E129" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G129" t="s">
         <v>1323</v>
@@ -8175,16 +8097,16 @@
         <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="C130" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="D130" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="E130" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="F130" t="s">
         <v>13</v>
@@ -8198,16 +8120,19 @@
         <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>1336</v>
+        <v>466</v>
+      </c>
+      <c r="C131" t="s">
+        <v>467</v>
       </c>
       <c r="D131" t="s">
-        <v>1326</v>
+        <v>468</v>
       </c>
       <c r="E131" t="s">
-        <v>1422</v>
+        <v>469</v>
       </c>
       <c r="F131" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G131" t="s">
         <v>1323</v>
@@ -8218,19 +8143,19 @@
         <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="C132" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="D132" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="E132" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="F132" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G132" t="s">
         <v>1323</v>
@@ -8241,19 +8166,19 @@
         <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="C133" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="D133" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="E133" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="F133" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G133" t="s">
         <v>1323</v>
@@ -8264,19 +8189,19 @@
         <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="C134" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="D134" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="E134" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="F134" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
         <v>1323</v>
@@ -8287,16 +8212,16 @@
         <v>8</v>
       </c>
       <c r="B135" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="C135" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="D135" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="E135" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="F135" t="s">
         <v>13</v>
@@ -8310,16 +8235,16 @@
         <v>8</v>
       </c>
       <c r="B136" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="C136" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="D136" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="E136" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="F136" t="s">
         <v>13</v>
@@ -8333,16 +8258,16 @@
         <v>8</v>
       </c>
       <c r="B137" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="C137" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="D137" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="E137" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="F137" t="s">
         <v>13</v>
@@ -8356,19 +8281,16 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>474</v>
-      </c>
-      <c r="C138" t="s">
-        <v>475</v>
+        <v>1447</v>
       </c>
       <c r="D138" t="s">
-        <v>476</v>
+        <v>1429</v>
       </c>
       <c r="E138" t="s">
-        <v>477</v>
+        <v>1480</v>
       </c>
       <c r="F138" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G138" t="s">
         <v>1323</v>
@@ -8379,19 +8301,19 @@
         <v>8</v>
       </c>
       <c r="B139" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="C139" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="D139" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="E139" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="F139" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G139" t="s">
         <v>1323</v>
@@ -8402,19 +8324,19 @@
         <v>8</v>
       </c>
       <c r="B140" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="C140" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="D140" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="E140" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="F140" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G140" t="s">
         <v>1323</v>
@@ -8425,16 +8347,16 @@
         <v>8</v>
       </c>
       <c r="B141" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="C141" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="D141" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="E141" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="F141" t="s">
         <v>13</v>
@@ -8448,19 +8370,16 @@
         <v>8</v>
       </c>
       <c r="B142" t="s">
-        <v>490</v>
-      </c>
-      <c r="C142" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="D142" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="E142" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="F142" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G142" t="s">
         <v>1323</v>
@@ -8471,16 +8390,19 @@
         <v>8</v>
       </c>
       <c r="B143" t="s">
-        <v>1447</v>
+        <v>509</v>
+      </c>
+      <c r="C143" t="s">
+        <v>510</v>
       </c>
       <c r="D143" t="s">
-        <v>1429</v>
+        <v>511</v>
       </c>
       <c r="E143" t="s">
-        <v>1480</v>
+        <v>512</v>
       </c>
       <c r="F143" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G143" t="s">
         <v>1323</v>
@@ -8491,16 +8413,13 @@
         <v>8</v>
       </c>
       <c r="B144" t="s">
-        <v>494</v>
-      </c>
-      <c r="C144" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="D144" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="E144" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="F144" t="s">
         <v>0</v>
@@ -8514,19 +8433,19 @@
         <v>8</v>
       </c>
       <c r="B145" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="C145" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="D145" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="E145" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="F145" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G145" t="s">
         <v>1323</v>
@@ -8537,19 +8456,16 @@
         <v>8</v>
       </c>
       <c r="B146" t="s">
-        <v>502</v>
-      </c>
-      <c r="C146" t="s">
-        <v>503</v>
+        <v>1418</v>
       </c>
       <c r="D146" t="s">
-        <v>504</v>
+        <v>1327</v>
       </c>
       <c r="E146" t="s">
-        <v>505</v>
+        <v>1423</v>
       </c>
       <c r="F146" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G146" t="s">
         <v>1323</v>
@@ -8560,13 +8476,13 @@
         <v>8</v>
       </c>
       <c r="B147" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="D147" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="E147" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="F147" t="s">
         <v>0</v>
@@ -8580,19 +8496,16 @@
         <v>8</v>
       </c>
       <c r="B148" t="s">
-        <v>509</v>
-      </c>
-      <c r="C148" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="D148" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="E148" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="F148" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G148" t="s">
         <v>1323</v>
@@ -8603,13 +8516,16 @@
         <v>8</v>
       </c>
       <c r="B149" t="s">
-        <v>513</v>
+        <v>526</v>
+      </c>
+      <c r="C149" t="s">
+        <v>527</v>
       </c>
       <c r="D149" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="E149" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="F149" t="s">
         <v>0</v>
@@ -8623,19 +8539,16 @@
         <v>8</v>
       </c>
       <c r="B150" t="s">
-        <v>516</v>
-      </c>
-      <c r="C150" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="D150" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="E150" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="F150" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G150" t="s">
         <v>1323</v>
@@ -8646,16 +8559,19 @@
         <v>8</v>
       </c>
       <c r="B151" t="s">
-        <v>1418</v>
+        <v>533</v>
+      </c>
+      <c r="C151" t="s">
+        <v>534</v>
       </c>
       <c r="D151" t="s">
-        <v>1327</v>
+        <v>535</v>
       </c>
       <c r="E151" t="s">
-        <v>1423</v>
+        <v>536</v>
       </c>
       <c r="F151" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G151" t="s">
         <v>1323</v>
@@ -8666,13 +8582,16 @@
         <v>8</v>
       </c>
       <c r="B152" t="s">
-        <v>520</v>
+        <v>537</v>
+      </c>
+      <c r="C152" t="s">
+        <v>538</v>
       </c>
       <c r="D152" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="E152" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="F152" t="s">
         <v>0</v>
@@ -8686,13 +8605,16 @@
         <v>8</v>
       </c>
       <c r="B153" t="s">
-        <v>523</v>
+        <v>541</v>
+      </c>
+      <c r="C153" t="s">
+        <v>541</v>
       </c>
       <c r="D153" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="E153" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="F153" t="s">
         <v>0</v>
@@ -8706,16 +8628,13 @@
         <v>8</v>
       </c>
       <c r="B154" t="s">
-        <v>526</v>
-      </c>
-      <c r="C154" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="D154" t="s">
-        <v>528</v>
+        <v>545</v>
       </c>
       <c r="E154" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="F154" t="s">
         <v>0</v>
@@ -8729,16 +8648,19 @@
         <v>8</v>
       </c>
       <c r="B155" t="s">
-        <v>530</v>
+        <v>547</v>
+      </c>
+      <c r="C155" t="s">
+        <v>548</v>
       </c>
       <c r="D155" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="E155" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="F155" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G155" t="s">
         <v>1323</v>
@@ -8749,16 +8671,16 @@
         <v>8</v>
       </c>
       <c r="B156" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="C156" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="D156" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="E156" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="F156" t="s">
         <v>13</v>
@@ -8772,16 +8694,13 @@
         <v>8</v>
       </c>
       <c r="B157" t="s">
-        <v>537</v>
-      </c>
-      <c r="C157" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="D157" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="E157" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="F157" t="s">
         <v>0</v>
@@ -8795,19 +8714,19 @@
         <v>8</v>
       </c>
       <c r="B158" t="s">
-        <v>541</v>
+        <v>1455</v>
       </c>
       <c r="C158" t="s">
-        <v>541</v>
+        <v>1470</v>
       </c>
       <c r="D158" t="s">
-        <v>542</v>
+        <v>1437</v>
       </c>
       <c r="E158" t="s">
-        <v>543</v>
+        <v>1488</v>
       </c>
       <c r="F158" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G158" t="s">
         <v>1323</v>
@@ -8818,16 +8737,19 @@
         <v>8</v>
       </c>
       <c r="B159" t="s">
-        <v>544</v>
+        <v>558</v>
+      </c>
+      <c r="C159" t="s">
+        <v>559</v>
       </c>
       <c r="D159" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="E159" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="F159" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G159" t="s">
         <v>1323</v>
@@ -8838,16 +8760,16 @@
         <v>8</v>
       </c>
       <c r="B160" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="C160" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D160" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="E160" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="F160" t="s">
         <v>13</v>
@@ -8861,19 +8783,19 @@
         <v>8</v>
       </c>
       <c r="B161" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="C161" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="D161" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="E161" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="F161" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G161" t="s">
         <v>1323</v>
@@ -8884,16 +8806,19 @@
         <v>8</v>
       </c>
       <c r="B162" t="s">
-        <v>555</v>
+        <v>570</v>
+      </c>
+      <c r="C162" t="s">
+        <v>571</v>
       </c>
       <c r="D162" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
       <c r="E162" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
       <c r="F162" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G162" t="s">
         <v>1323</v>
@@ -8904,16 +8829,16 @@
         <v>8</v>
       </c>
       <c r="B163" t="s">
-        <v>1455</v>
+        <v>574</v>
       </c>
       <c r="C163" t="s">
-        <v>1470</v>
+        <v>575</v>
       </c>
       <c r="D163" t="s">
-        <v>1437</v>
+        <v>576</v>
       </c>
       <c r="E163" t="s">
-        <v>1488</v>
+        <v>577</v>
       </c>
       <c r="F163" t="s">
         <v>13</v>
@@ -8927,16 +8852,16 @@
         <v>8</v>
       </c>
       <c r="B164" t="s">
-        <v>558</v>
+        <v>578</v>
       </c>
       <c r="C164" t="s">
-        <v>559</v>
+        <v>579</v>
       </c>
       <c r="D164" t="s">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="E164" t="s">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="F164" t="s">
         <v>13</v>
@@ -8950,16 +8875,16 @@
         <v>8</v>
       </c>
       <c r="B165" t="s">
-        <v>562</v>
+        <v>582</v>
       </c>
       <c r="C165" t="s">
-        <v>563</v>
+        <v>583</v>
       </c>
       <c r="D165" t="s">
-        <v>564</v>
+        <v>584</v>
       </c>
       <c r="E165" t="s">
-        <v>565</v>
+        <v>585</v>
       </c>
       <c r="F165" t="s">
         <v>13</v>
@@ -8973,19 +8898,19 @@
         <v>8</v>
       </c>
       <c r="B166" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="C166" t="s">
-        <v>567</v>
+        <v>587</v>
       </c>
       <c r="D166" t="s">
-        <v>568</v>
+        <v>588</v>
       </c>
       <c r="E166" t="s">
-        <v>569</v>
+        <v>589</v>
       </c>
       <c r="F166" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G166" t="s">
         <v>1323</v>
@@ -8996,16 +8921,16 @@
         <v>8</v>
       </c>
       <c r="B167" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="C167" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="D167" t="s">
-        <v>572</v>
+        <v>592</v>
       </c>
       <c r="E167" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="F167" t="s">
         <v>13</v>
@@ -9019,16 +8944,16 @@
         <v>8</v>
       </c>
       <c r="B168" t="s">
-        <v>574</v>
+        <v>594</v>
       </c>
       <c r="C168" t="s">
-        <v>575</v>
+        <v>595</v>
       </c>
       <c r="D168" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="E168" t="s">
-        <v>577</v>
+        <v>597</v>
       </c>
       <c r="F168" t="s">
         <v>13</v>
@@ -9042,16 +8967,16 @@
         <v>8</v>
       </c>
       <c r="B169" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
       <c r="C169" t="s">
-        <v>579</v>
+        <v>599</v>
       </c>
       <c r="D169" t="s">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="E169" t="s">
-        <v>581</v>
+        <v>601</v>
       </c>
       <c r="F169" t="s">
         <v>13</v>
@@ -9065,16 +8990,16 @@
         <v>8</v>
       </c>
       <c r="B170" t="s">
-        <v>582</v>
+        <v>602</v>
       </c>
       <c r="C170" t="s">
-        <v>583</v>
+        <v>603</v>
       </c>
       <c r="D170" t="s">
-        <v>584</v>
+        <v>604</v>
       </c>
       <c r="E170" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="F170" t="s">
         <v>13</v>
@@ -9088,16 +9013,16 @@
         <v>8</v>
       </c>
       <c r="B171" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="C171" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="D171" t="s">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="E171" t="s">
-        <v>589</v>
+        <v>609</v>
       </c>
       <c r="F171" t="s">
         <v>13</v>
@@ -9111,19 +9036,19 @@
         <v>8</v>
       </c>
       <c r="B172" t="s">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="C172" t="s">
-        <v>591</v>
+        <v>611</v>
       </c>
       <c r="D172" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
       <c r="E172" t="s">
-        <v>593</v>
+        <v>613</v>
       </c>
       <c r="F172" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G172" t="s">
         <v>1323</v>
@@ -9134,16 +9059,16 @@
         <v>8</v>
       </c>
       <c r="B173" t="s">
-        <v>594</v>
+        <v>1346</v>
       </c>
       <c r="C173" t="s">
-        <v>595</v>
+        <v>1400</v>
       </c>
       <c r="D173" t="s">
-        <v>596</v>
+        <v>1364</v>
       </c>
       <c r="E173" t="s">
-        <v>597</v>
+        <v>1382</v>
       </c>
       <c r="F173" t="s">
         <v>13</v>
@@ -9157,16 +9082,16 @@
         <v>8</v>
       </c>
       <c r="B174" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
       <c r="C174" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="D174" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="E174" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="F174" t="s">
         <v>13</v>
@@ -9180,16 +9105,16 @@
         <v>8</v>
       </c>
       <c r="B175" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="C175" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="D175" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="E175" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="F175" t="s">
         <v>13</v>
@@ -9203,16 +9128,16 @@
         <v>8</v>
       </c>
       <c r="B176" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="C176" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="D176" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="E176" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="F176" t="s">
         <v>13</v>
@@ -9226,16 +9151,16 @@
         <v>8</v>
       </c>
       <c r="B177" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="C177" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="D177" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
       <c r="E177" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
       <c r="F177" t="s">
         <v>0</v>
@@ -9249,16 +9174,16 @@
         <v>8</v>
       </c>
       <c r="B178" t="s">
-        <v>1346</v>
+        <v>630</v>
       </c>
       <c r="C178" t="s">
-        <v>1400</v>
+        <v>631</v>
       </c>
       <c r="D178" t="s">
-        <v>1364</v>
+        <v>632</v>
       </c>
       <c r="E178" t="s">
-        <v>1382</v>
+        <v>633</v>
       </c>
       <c r="F178" t="s">
         <v>13</v>
@@ -9272,16 +9197,16 @@
         <v>8</v>
       </c>
       <c r="B179" t="s">
-        <v>614</v>
+        <v>1347</v>
       </c>
       <c r="C179" t="s">
-        <v>615</v>
+        <v>1401</v>
       </c>
       <c r="D179" t="s">
-        <v>616</v>
+        <v>1365</v>
       </c>
       <c r="E179" t="s">
-        <v>617</v>
+        <v>1383</v>
       </c>
       <c r="F179" t="s">
         <v>13</v>
@@ -9295,16 +9220,16 @@
         <v>8</v>
       </c>
       <c r="B180" t="s">
-        <v>618</v>
+        <v>1456</v>
       </c>
       <c r="C180" t="s">
-        <v>619</v>
+        <v>1471</v>
       </c>
       <c r="D180" t="s">
-        <v>620</v>
+        <v>1438</v>
       </c>
       <c r="E180" t="s">
-        <v>621</v>
+        <v>1489</v>
       </c>
       <c r="F180" t="s">
         <v>13</v>
@@ -9318,16 +9243,16 @@
         <v>8</v>
       </c>
       <c r="B181" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C181" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="D181" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="E181" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="F181" t="s">
         <v>13</v>
@@ -9341,19 +9266,19 @@
         <v>8</v>
       </c>
       <c r="B182" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="C182" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="D182" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="E182" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="F182" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G182" t="s">
         <v>1323</v>
@@ -9364,16 +9289,16 @@
         <v>8</v>
       </c>
       <c r="B183" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="C183" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="D183" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="E183" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="F183" t="s">
         <v>13</v>
@@ -9387,19 +9312,19 @@
         <v>8</v>
       </c>
       <c r="B184" t="s">
-        <v>1347</v>
+        <v>646</v>
       </c>
       <c r="C184" t="s">
-        <v>1401</v>
+        <v>647</v>
       </c>
       <c r="D184" t="s">
-        <v>1365</v>
+        <v>648</v>
       </c>
       <c r="E184" t="s">
-        <v>1383</v>
+        <v>649</v>
       </c>
       <c r="F184" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G184" t="s">
         <v>1323</v>
@@ -9410,16 +9335,16 @@
         <v>8</v>
       </c>
       <c r="B185" t="s">
-        <v>1456</v>
+        <v>650</v>
       </c>
       <c r="C185" t="s">
-        <v>1471</v>
+        <v>651</v>
       </c>
       <c r="D185" t="s">
-        <v>1438</v>
+        <v>652</v>
       </c>
       <c r="E185" t="s">
-        <v>1489</v>
+        <v>653</v>
       </c>
       <c r="F185" t="s">
         <v>13</v>
@@ -9433,16 +9358,16 @@
         <v>8</v>
       </c>
       <c r="B186" t="s">
-        <v>634</v>
+        <v>1451</v>
       </c>
       <c r="C186" t="s">
-        <v>635</v>
+        <v>1466</v>
       </c>
       <c r="D186" t="s">
-        <v>636</v>
+        <v>1433</v>
       </c>
       <c r="E186" t="s">
-        <v>637</v>
+        <v>1484</v>
       </c>
       <c r="F186" t="s">
         <v>13</v>
@@ -9456,16 +9381,16 @@
         <v>8</v>
       </c>
       <c r="B187" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
       <c r="C187" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="D187" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="E187" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="F187" t="s">
         <v>13</v>
@@ -9479,16 +9404,16 @@
         <v>8</v>
       </c>
       <c r="B188" t="s">
-        <v>642</v>
+        <v>658</v>
       </c>
       <c r="C188" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="D188" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
       <c r="E188" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="F188" t="s">
         <v>13</v>
@@ -9502,19 +9427,19 @@
         <v>8</v>
       </c>
       <c r="B189" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="C189" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="D189" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="E189" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="F189" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G189" t="s">
         <v>1323</v>
@@ -9525,16 +9450,16 @@
         <v>8</v>
       </c>
       <c r="B190" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="C190" t="s">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="D190" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
       <c r="E190" t="s">
-        <v>653</v>
+        <v>669</v>
       </c>
       <c r="F190" t="s">
         <v>13</v>
@@ -9548,16 +9473,16 @@
         <v>8</v>
       </c>
       <c r="B191" t="s">
-        <v>1451</v>
+        <v>670</v>
       </c>
       <c r="C191" t="s">
-        <v>1466</v>
+        <v>671</v>
       </c>
       <c r="D191" t="s">
-        <v>1433</v>
+        <v>672</v>
       </c>
       <c r="E191" t="s">
-        <v>1484</v>
+        <v>673</v>
       </c>
       <c r="F191" t="s">
         <v>13</v>
@@ -9571,16 +9496,16 @@
         <v>8</v>
       </c>
       <c r="B192" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="C192" t="s">
-        <v>655</v>
+        <v>675</v>
       </c>
       <c r="D192" t="s">
-        <v>656</v>
+        <v>676</v>
       </c>
       <c r="E192" t="s">
-        <v>657</v>
+        <v>677</v>
       </c>
       <c r="F192" t="s">
         <v>13</v>
@@ -9594,16 +9519,16 @@
         <v>8</v>
       </c>
       <c r="B193" t="s">
-        <v>658</v>
+        <v>678</v>
       </c>
       <c r="C193" t="s">
-        <v>659</v>
+        <v>679</v>
       </c>
       <c r="D193" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="E193" t="s">
-        <v>661</v>
+        <v>681</v>
       </c>
       <c r="F193" t="s">
         <v>13</v>
@@ -9617,16 +9542,16 @@
         <v>8</v>
       </c>
       <c r="B194" t="s">
-        <v>662</v>
+        <v>682</v>
       </c>
       <c r="C194" t="s">
-        <v>663</v>
+        <v>683</v>
       </c>
       <c r="D194" t="s">
-        <v>664</v>
+        <v>684</v>
       </c>
       <c r="E194" t="s">
-        <v>665</v>
+        <v>685</v>
       </c>
       <c r="F194" t="s">
         <v>13</v>
@@ -9640,19 +9565,19 @@
         <v>8</v>
       </c>
       <c r="B195" t="s">
-        <v>666</v>
+        <v>686</v>
       </c>
       <c r="C195" t="s">
-        <v>667</v>
+        <v>687</v>
       </c>
       <c r="D195" t="s">
-        <v>668</v>
+        <v>688</v>
       </c>
       <c r="E195" t="s">
-        <v>669</v>
+        <v>689</v>
       </c>
       <c r="F195" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G195" t="s">
         <v>1323</v>
@@ -9663,16 +9588,16 @@
         <v>8</v>
       </c>
       <c r="B196" t="s">
-        <v>670</v>
+        <v>690</v>
       </c>
       <c r="C196" t="s">
-        <v>671</v>
+        <v>691</v>
       </c>
       <c r="D196" t="s">
-        <v>672</v>
+        <v>692</v>
       </c>
       <c r="E196" t="s">
-        <v>673</v>
+        <v>693</v>
       </c>
       <c r="F196" t="s">
         <v>13</v>
@@ -9686,16 +9611,16 @@
         <v>8</v>
       </c>
       <c r="B197" t="s">
-        <v>674</v>
+        <v>694</v>
       </c>
       <c r="C197" t="s">
-        <v>675</v>
+        <v>695</v>
       </c>
       <c r="D197" t="s">
-        <v>676</v>
+        <v>696</v>
       </c>
       <c r="E197" t="s">
-        <v>677</v>
+        <v>697</v>
       </c>
       <c r="F197" t="s">
         <v>13</v>
@@ -9709,16 +9634,16 @@
         <v>8</v>
       </c>
       <c r="B198" t="s">
-        <v>678</v>
+        <v>698</v>
       </c>
       <c r="C198" t="s">
-        <v>679</v>
+        <v>699</v>
       </c>
       <c r="D198" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="E198" t="s">
-        <v>681</v>
+        <v>701</v>
       </c>
       <c r="F198" t="s">
         <v>13</v>
@@ -9732,16 +9657,16 @@
         <v>8</v>
       </c>
       <c r="B199" t="s">
-        <v>682</v>
+        <v>702</v>
       </c>
       <c r="C199" t="s">
-        <v>683</v>
+        <v>703</v>
       </c>
       <c r="D199" t="s">
-        <v>684</v>
+        <v>704</v>
       </c>
       <c r="E199" t="s">
-        <v>685</v>
+        <v>705</v>
       </c>
       <c r="F199" t="s">
         <v>13</v>
@@ -9755,19 +9680,19 @@
         <v>8</v>
       </c>
       <c r="B200" t="s">
-        <v>686</v>
+        <v>706</v>
       </c>
       <c r="C200" t="s">
-        <v>687</v>
+        <v>707</v>
       </c>
       <c r="D200" t="s">
-        <v>688</v>
+        <v>708</v>
       </c>
       <c r="E200" t="s">
-        <v>689</v>
+        <v>709</v>
       </c>
       <c r="F200" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G200" t="s">
         <v>1323</v>
@@ -9778,16 +9703,16 @@
         <v>8</v>
       </c>
       <c r="B201" t="s">
-        <v>690</v>
+        <v>710</v>
       </c>
       <c r="C201" t="s">
-        <v>691</v>
+        <v>711</v>
       </c>
       <c r="D201" t="s">
-        <v>692</v>
+        <v>712</v>
       </c>
       <c r="E201" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="F201" t="s">
         <v>13</v>
@@ -9801,16 +9726,16 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>694</v>
+        <v>714</v>
       </c>
       <c r="C202" t="s">
-        <v>695</v>
+        <v>715</v>
       </c>
       <c r="D202" t="s">
-        <v>696</v>
+        <v>716</v>
       </c>
       <c r="E202" t="s">
-        <v>697</v>
+        <v>717</v>
       </c>
       <c r="F202" t="s">
         <v>13</v>
@@ -9824,16 +9749,16 @@
         <v>8</v>
       </c>
       <c r="B203" t="s">
-        <v>698</v>
+        <v>718</v>
       </c>
       <c r="C203" t="s">
-        <v>699</v>
+        <v>719</v>
       </c>
       <c r="D203" t="s">
-        <v>700</v>
+        <v>720</v>
       </c>
       <c r="E203" t="s">
-        <v>701</v>
+        <v>721</v>
       </c>
       <c r="F203" t="s">
         <v>13</v>
@@ -9847,19 +9772,16 @@
         <v>8</v>
       </c>
       <c r="B204" t="s">
-        <v>702</v>
-      </c>
-      <c r="C204" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="D204" t="s">
-        <v>704</v>
+        <v>723</v>
       </c>
       <c r="E204" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="F204" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G204" t="s">
         <v>1323</v>
@@ -9870,19 +9792,16 @@
         <v>8</v>
       </c>
       <c r="B205" t="s">
-        <v>706</v>
-      </c>
-      <c r="C205" t="s">
-        <v>707</v>
+        <v>725</v>
       </c>
       <c r="D205" t="s">
-        <v>708</v>
+        <v>726</v>
       </c>
       <c r="E205" t="s">
-        <v>709</v>
+        <v>727</v>
       </c>
       <c r="F205" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G205" t="s">
         <v>1323</v>
@@ -9893,16 +9812,16 @@
         <v>8</v>
       </c>
       <c r="B206" t="s">
-        <v>710</v>
+        <v>728</v>
       </c>
       <c r="C206" t="s">
-        <v>711</v>
+        <v>729</v>
       </c>
       <c r="D206" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="E206" t="s">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="F206" t="s">
         <v>13</v>
@@ -9916,16 +9835,16 @@
         <v>8</v>
       </c>
       <c r="B207" t="s">
-        <v>714</v>
+        <v>732</v>
       </c>
       <c r="C207" t="s">
-        <v>715</v>
+        <v>733</v>
       </c>
       <c r="D207" t="s">
-        <v>716</v>
+        <v>734</v>
       </c>
       <c r="E207" t="s">
-        <v>717</v>
+        <v>735</v>
       </c>
       <c r="F207" t="s">
         <v>13</v>
@@ -9939,16 +9858,16 @@
         <v>8</v>
       </c>
       <c r="B208" t="s">
-        <v>718</v>
+        <v>736</v>
       </c>
       <c r="C208" t="s">
-        <v>719</v>
+        <v>737</v>
       </c>
       <c r="D208" t="s">
-        <v>720</v>
+        <v>738</v>
       </c>
       <c r="E208" t="s">
-        <v>721</v>
+        <v>739</v>
       </c>
       <c r="F208" t="s">
         <v>13</v>
@@ -9962,16 +9881,19 @@
         <v>8</v>
       </c>
       <c r="B209" t="s">
-        <v>722</v>
+        <v>740</v>
+      </c>
+      <c r="C209" t="s">
+        <v>741</v>
       </c>
       <c r="D209" t="s">
-        <v>723</v>
+        <v>742</v>
       </c>
       <c r="E209" t="s">
-        <v>724</v>
+        <v>743</v>
       </c>
       <c r="F209" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G209" t="s">
         <v>1323</v>
@@ -9982,16 +9904,19 @@
         <v>8</v>
       </c>
       <c r="B210" t="s">
-        <v>725</v>
+        <v>744</v>
+      </c>
+      <c r="C210" t="s">
+        <v>745</v>
       </c>
       <c r="D210" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="E210" t="s">
-        <v>727</v>
+        <v>747</v>
       </c>
       <c r="F210" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G210" t="s">
         <v>1323</v>
@@ -10002,16 +9927,16 @@
         <v>8</v>
       </c>
       <c r="B211" t="s">
-        <v>728</v>
+        <v>748</v>
       </c>
       <c r="C211" t="s">
-        <v>729</v>
+        <v>749</v>
       </c>
       <c r="D211" t="s">
-        <v>730</v>
+        <v>750</v>
       </c>
       <c r="E211" t="s">
-        <v>731</v>
+        <v>751</v>
       </c>
       <c r="F211" t="s">
         <v>13</v>
@@ -10025,19 +9950,19 @@
         <v>8</v>
       </c>
       <c r="B212" t="s">
-        <v>732</v>
+        <v>1348</v>
       </c>
       <c r="C212" t="s">
-        <v>733</v>
+        <v>1402</v>
       </c>
       <c r="D212" t="s">
-        <v>734</v>
+        <v>1366</v>
       </c>
       <c r="E212" t="s">
-        <v>735</v>
+        <v>1384</v>
       </c>
       <c r="F212" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G212" t="s">
         <v>1323</v>
@@ -10048,16 +9973,16 @@
         <v>8</v>
       </c>
       <c r="B213" t="s">
-        <v>736</v>
+        <v>1349</v>
       </c>
       <c r="C213" t="s">
-        <v>737</v>
+        <v>1403</v>
       </c>
       <c r="D213" t="s">
-        <v>738</v>
+        <v>1367</v>
       </c>
       <c r="E213" t="s">
-        <v>739</v>
+        <v>1385</v>
       </c>
       <c r="F213" t="s">
         <v>13</v>
@@ -10071,19 +9996,16 @@
         <v>8</v>
       </c>
       <c r="B214" t="s">
-        <v>740</v>
-      </c>
-      <c r="C214" t="s">
-        <v>741</v>
+        <v>1508</v>
       </c>
       <c r="D214" t="s">
-        <v>742</v>
+        <v>1501</v>
       </c>
       <c r="E214" t="s">
-        <v>743</v>
+        <v>1515</v>
       </c>
       <c r="F214" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G214" t="s">
         <v>1323</v>
@@ -10094,16 +10016,16 @@
         <v>8</v>
       </c>
       <c r="B215" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="C215" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="D215" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="E215" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="F215" t="s">
         <v>13</v>
@@ -10117,16 +10039,16 @@
         <v>8</v>
       </c>
       <c r="B216" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="C216" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="D216" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="E216" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="F216" t="s">
         <v>13</v>
@@ -10140,19 +10062,19 @@
         <v>8</v>
       </c>
       <c r="B217" t="s">
-        <v>1348</v>
+        <v>760</v>
       </c>
       <c r="C217" t="s">
-        <v>1402</v>
+        <v>761</v>
       </c>
       <c r="D217" t="s">
-        <v>1366</v>
+        <v>762</v>
       </c>
       <c r="E217" t="s">
-        <v>1384</v>
+        <v>763</v>
       </c>
       <c r="F217" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G217" t="s">
         <v>1323</v>
@@ -10163,16 +10085,16 @@
         <v>8</v>
       </c>
       <c r="B218" t="s">
-        <v>1349</v>
+        <v>764</v>
       </c>
       <c r="C218" t="s">
-        <v>1403</v>
+        <v>765</v>
       </c>
       <c r="D218" t="s">
-        <v>1367</v>
+        <v>766</v>
       </c>
       <c r="E218" t="s">
-        <v>1385</v>
+        <v>767</v>
       </c>
       <c r="F218" t="s">
         <v>13</v>
@@ -10186,13 +10108,16 @@
         <v>8</v>
       </c>
       <c r="B219" t="s">
-        <v>1523</v>
+        <v>768</v>
+      </c>
+      <c r="C219" t="s">
+        <v>769</v>
       </c>
       <c r="D219" t="s">
-        <v>1506</v>
+        <v>770</v>
       </c>
       <c r="E219" t="s">
-        <v>1540</v>
+        <v>771</v>
       </c>
       <c r="F219" t="s">
         <v>0</v>
@@ -10206,16 +10131,16 @@
         <v>8</v>
       </c>
       <c r="B220" t="s">
-        <v>752</v>
+        <v>772</v>
       </c>
       <c r="C220" t="s">
-        <v>753</v>
+        <v>773</v>
       </c>
       <c r="D220" t="s">
-        <v>754</v>
+        <v>774</v>
       </c>
       <c r="E220" t="s">
-        <v>755</v>
+        <v>775</v>
       </c>
       <c r="F220" t="s">
         <v>13</v>
@@ -10229,16 +10154,16 @@
         <v>8</v>
       </c>
       <c r="B221" t="s">
-        <v>756</v>
+        <v>776</v>
       </c>
       <c r="C221" t="s">
-        <v>757</v>
+        <v>777</v>
       </c>
       <c r="D221" t="s">
-        <v>758</v>
+        <v>778</v>
       </c>
       <c r="E221" t="s">
-        <v>759</v>
+        <v>779</v>
       </c>
       <c r="F221" t="s">
         <v>13</v>
@@ -10252,16 +10177,16 @@
         <v>8</v>
       </c>
       <c r="B222" t="s">
-        <v>760</v>
+        <v>780</v>
       </c>
       <c r="C222" t="s">
-        <v>761</v>
+        <v>781</v>
       </c>
       <c r="D222" t="s">
-        <v>762</v>
+        <v>782</v>
       </c>
       <c r="E222" t="s">
-        <v>763</v>
+        <v>783</v>
       </c>
       <c r="F222" t="s">
         <v>13</v>
@@ -10275,16 +10200,16 @@
         <v>8</v>
       </c>
       <c r="B223" t="s">
-        <v>764</v>
+        <v>784</v>
       </c>
       <c r="C223" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D223" t="s">
-        <v>766</v>
+        <v>786</v>
       </c>
       <c r="E223" t="s">
-        <v>767</v>
+        <v>787</v>
       </c>
       <c r="F223" t="s">
         <v>13</v>
@@ -10298,19 +10223,19 @@
         <v>8</v>
       </c>
       <c r="B224" t="s">
-        <v>768</v>
+        <v>788</v>
       </c>
       <c r="C224" t="s">
-        <v>769</v>
+        <v>789</v>
       </c>
       <c r="D224" t="s">
-        <v>770</v>
+        <v>790</v>
       </c>
       <c r="E224" t="s">
-        <v>771</v>
+        <v>791</v>
       </c>
       <c r="F224" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G224" t="s">
         <v>1323</v>
@@ -10321,16 +10246,16 @@
         <v>8</v>
       </c>
       <c r="B225" t="s">
-        <v>772</v>
+        <v>792</v>
       </c>
       <c r="C225" t="s">
-        <v>773</v>
+        <v>793</v>
       </c>
       <c r="D225" t="s">
-        <v>774</v>
+        <v>794</v>
       </c>
       <c r="E225" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="F225" t="s">
         <v>13</v>
@@ -10344,16 +10269,16 @@
         <v>8</v>
       </c>
       <c r="B226" t="s">
-        <v>776</v>
+        <v>796</v>
       </c>
       <c r="C226" t="s">
-        <v>777</v>
+        <v>797</v>
       </c>
       <c r="D226" t="s">
-        <v>778</v>
+        <v>798</v>
       </c>
       <c r="E226" t="s">
-        <v>779</v>
+        <v>799</v>
       </c>
       <c r="F226" t="s">
         <v>13</v>
@@ -10367,16 +10292,13 @@
         <v>8</v>
       </c>
       <c r="B227" t="s">
-        <v>780</v>
-      </c>
-      <c r="C227" t="s">
-        <v>781</v>
+        <v>1510</v>
       </c>
       <c r="D227" t="s">
-        <v>782</v>
+        <v>1503</v>
       </c>
       <c r="E227" t="s">
-        <v>783</v>
+        <v>1517</v>
       </c>
       <c r="F227" t="s">
         <v>13</v>
@@ -10390,16 +10312,16 @@
         <v>8</v>
       </c>
       <c r="B228" t="s">
-        <v>784</v>
+        <v>800</v>
       </c>
       <c r="C228" t="s">
-        <v>785</v>
+        <v>801</v>
       </c>
       <c r="D228" t="s">
-        <v>786</v>
+        <v>802</v>
       </c>
       <c r="E228" t="s">
-        <v>787</v>
+        <v>803</v>
       </c>
       <c r="F228" t="s">
         <v>13</v>
@@ -10413,16 +10335,16 @@
         <v>8</v>
       </c>
       <c r="B229" t="s">
-        <v>788</v>
+        <v>1340</v>
       </c>
       <c r="C229" t="s">
-        <v>789</v>
+        <v>1415</v>
       </c>
       <c r="D229" t="s">
-        <v>790</v>
+        <v>1331</v>
       </c>
       <c r="E229" t="s">
-        <v>791</v>
+        <v>1424</v>
       </c>
       <c r="F229" t="s">
         <v>13</v>
@@ -10436,19 +10358,16 @@
         <v>8</v>
       </c>
       <c r="B230" t="s">
-        <v>792</v>
-      </c>
-      <c r="C230" t="s">
-        <v>793</v>
+        <v>804</v>
       </c>
       <c r="D230" t="s">
-        <v>794</v>
+        <v>805</v>
       </c>
       <c r="E230" t="s">
-        <v>795</v>
+        <v>806</v>
       </c>
       <c r="F230" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G230" t="s">
         <v>1323</v>
@@ -10459,16 +10378,16 @@
         <v>8</v>
       </c>
       <c r="B231" t="s">
-        <v>796</v>
+        <v>807</v>
       </c>
       <c r="C231" t="s">
-        <v>797</v>
+        <v>808</v>
       </c>
       <c r="D231" t="s">
-        <v>798</v>
+        <v>809</v>
       </c>
       <c r="E231" t="s">
-        <v>799</v>
+        <v>810</v>
       </c>
       <c r="F231" t="s">
         <v>13</v>
@@ -10482,13 +10401,16 @@
         <v>8</v>
       </c>
       <c r="B232" t="s">
-        <v>1525</v>
+        <v>811</v>
+      </c>
+      <c r="C232" t="s">
+        <v>812</v>
       </c>
       <c r="D232" t="s">
-        <v>1508</v>
+        <v>813</v>
       </c>
       <c r="E232" t="s">
-        <v>1542</v>
+        <v>814</v>
       </c>
       <c r="F232" t="s">
         <v>13</v>
@@ -10502,16 +10424,16 @@
         <v>8</v>
       </c>
       <c r="B233" t="s">
-        <v>800</v>
+        <v>815</v>
       </c>
       <c r="C233" t="s">
-        <v>801</v>
+        <v>816</v>
       </c>
       <c r="D233" t="s">
-        <v>802</v>
+        <v>817</v>
       </c>
       <c r="E233" t="s">
-        <v>803</v>
+        <v>818</v>
       </c>
       <c r="F233" t="s">
         <v>13</v>
@@ -10525,16 +10447,16 @@
         <v>8</v>
       </c>
       <c r="B234" t="s">
-        <v>1340</v>
+        <v>819</v>
       </c>
       <c r="C234" t="s">
-        <v>1415</v>
+        <v>820</v>
       </c>
       <c r="D234" t="s">
-        <v>1331</v>
+        <v>821</v>
       </c>
       <c r="E234" t="s">
-        <v>1424</v>
+        <v>822</v>
       </c>
       <c r="F234" t="s">
         <v>13</v>
@@ -10548,13 +10470,16 @@
         <v>8</v>
       </c>
       <c r="B235" t="s">
-        <v>804</v>
+        <v>823</v>
+      </c>
+      <c r="C235" t="s">
+        <v>823</v>
       </c>
       <c r="D235" t="s">
-        <v>805</v>
+        <v>824</v>
       </c>
       <c r="E235" t="s">
-        <v>806</v>
+        <v>825</v>
       </c>
       <c r="F235" t="s">
         <v>0</v>
@@ -10568,16 +10493,16 @@
         <v>8</v>
       </c>
       <c r="B236" t="s">
-        <v>807</v>
+        <v>826</v>
       </c>
       <c r="C236" t="s">
-        <v>808</v>
+        <v>827</v>
       </c>
       <c r="D236" t="s">
-        <v>809</v>
+        <v>828</v>
       </c>
       <c r="E236" t="s">
-        <v>810</v>
+        <v>829</v>
       </c>
       <c r="F236" t="s">
         <v>13</v>
@@ -10591,16 +10516,16 @@
         <v>8</v>
       </c>
       <c r="B237" t="s">
-        <v>811</v>
+        <v>830</v>
       </c>
       <c r="C237" t="s">
-        <v>812</v>
+        <v>831</v>
       </c>
       <c r="D237" t="s">
-        <v>813</v>
+        <v>832</v>
       </c>
       <c r="E237" t="s">
-        <v>814</v>
+        <v>833</v>
       </c>
       <c r="F237" t="s">
         <v>13</v>
@@ -10614,16 +10539,16 @@
         <v>8</v>
       </c>
       <c r="B238" t="s">
-        <v>815</v>
+        <v>834</v>
       </c>
       <c r="C238" t="s">
-        <v>816</v>
+        <v>835</v>
       </c>
       <c r="D238" t="s">
-        <v>817</v>
+        <v>836</v>
       </c>
       <c r="E238" t="s">
-        <v>818</v>
+        <v>837</v>
       </c>
       <c r="F238" t="s">
         <v>13</v>
@@ -10637,16 +10562,16 @@
         <v>8</v>
       </c>
       <c r="B239" t="s">
-        <v>819</v>
+        <v>1457</v>
       </c>
       <c r="C239" t="s">
-        <v>820</v>
+        <v>1472</v>
       </c>
       <c r="D239" t="s">
-        <v>821</v>
+        <v>1439</v>
       </c>
       <c r="E239" t="s">
-        <v>822</v>
+        <v>1490</v>
       </c>
       <c r="F239" t="s">
         <v>13</v>
@@ -10660,19 +10585,19 @@
         <v>8</v>
       </c>
       <c r="B240" t="s">
-        <v>823</v>
+        <v>838</v>
       </c>
       <c r="C240" t="s">
-        <v>823</v>
+        <v>839</v>
       </c>
       <c r="D240" t="s">
-        <v>824</v>
+        <v>840</v>
       </c>
       <c r="E240" t="s">
-        <v>825</v>
+        <v>841</v>
       </c>
       <c r="F240" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G240" t="s">
         <v>1323</v>
@@ -10683,16 +10608,13 @@
         <v>8</v>
       </c>
       <c r="B241" t="s">
-        <v>826</v>
-      </c>
-      <c r="C241" t="s">
-        <v>827</v>
+        <v>1350</v>
       </c>
       <c r="D241" t="s">
-        <v>828</v>
+        <v>1368</v>
       </c>
       <c r="E241" t="s">
-        <v>829</v>
+        <v>1386</v>
       </c>
       <c r="F241" t="s">
         <v>13</v>
@@ -10706,19 +10628,19 @@
         <v>8</v>
       </c>
       <c r="B242" t="s">
-        <v>830</v>
+        <v>842</v>
       </c>
       <c r="C242" t="s">
-        <v>831</v>
+        <v>843</v>
       </c>
       <c r="D242" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="E242" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="F242" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G242" t="s">
         <v>1323</v>
@@ -10729,16 +10651,16 @@
         <v>8</v>
       </c>
       <c r="B243" t="s">
-        <v>834</v>
+        <v>1341</v>
       </c>
       <c r="C243" t="s">
-        <v>835</v>
+        <v>1416</v>
       </c>
       <c r="D243" t="s">
-        <v>836</v>
+        <v>1332</v>
       </c>
       <c r="E243" t="s">
-        <v>837</v>
+        <v>1425</v>
       </c>
       <c r="F243" t="s">
         <v>13</v>
@@ -10752,16 +10674,16 @@
         <v>8</v>
       </c>
       <c r="B244" t="s">
-        <v>1457</v>
+        <v>846</v>
       </c>
       <c r="C244" t="s">
-        <v>1472</v>
+        <v>847</v>
       </c>
       <c r="D244" t="s">
-        <v>1439</v>
+        <v>848</v>
       </c>
       <c r="E244" t="s">
-        <v>1490</v>
+        <v>849</v>
       </c>
       <c r="F244" t="s">
         <v>13</v>
@@ -10775,16 +10697,16 @@
         <v>8</v>
       </c>
       <c r="B245" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="C245" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="D245" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
       <c r="E245" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="F245" t="s">
         <v>13</v>
@@ -10798,13 +10720,16 @@
         <v>8</v>
       </c>
       <c r="B246" t="s">
-        <v>1350</v>
+        <v>854</v>
+      </c>
+      <c r="C246" t="s">
+        <v>855</v>
       </c>
       <c r="D246" t="s">
-        <v>1368</v>
+        <v>856</v>
       </c>
       <c r="E246" t="s">
-        <v>1386</v>
+        <v>857</v>
       </c>
       <c r="F246" t="s">
         <v>13</v>
@@ -10818,19 +10743,19 @@
         <v>8</v>
       </c>
       <c r="B247" t="s">
-        <v>842</v>
+        <v>858</v>
       </c>
       <c r="C247" t="s">
-        <v>843</v>
+        <v>859</v>
       </c>
       <c r="D247" t="s">
-        <v>844</v>
+        <v>860</v>
       </c>
       <c r="E247" t="s">
-        <v>845</v>
+        <v>861</v>
       </c>
       <c r="F247" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G247" t="s">
         <v>1323</v>
@@ -10841,16 +10766,16 @@
         <v>8</v>
       </c>
       <c r="B248" t="s">
-        <v>1341</v>
+        <v>862</v>
       </c>
       <c r="C248" t="s">
-        <v>1416</v>
+        <v>863</v>
       </c>
       <c r="D248" t="s">
-        <v>1332</v>
+        <v>864</v>
       </c>
       <c r="E248" t="s">
-        <v>1425</v>
+        <v>865</v>
       </c>
       <c r="F248" t="s">
         <v>13</v>
@@ -10864,16 +10789,16 @@
         <v>8</v>
       </c>
       <c r="B249" t="s">
-        <v>846</v>
+        <v>866</v>
       </c>
       <c r="C249" t="s">
-        <v>847</v>
+        <v>867</v>
       </c>
       <c r="D249" t="s">
-        <v>848</v>
+        <v>868</v>
       </c>
       <c r="E249" t="s">
-        <v>849</v>
+        <v>869</v>
       </c>
       <c r="F249" t="s">
         <v>13</v>
@@ -10887,16 +10812,16 @@
         <v>8</v>
       </c>
       <c r="B250" t="s">
-        <v>850</v>
+        <v>1351</v>
       </c>
       <c r="C250" t="s">
-        <v>851</v>
+        <v>1404</v>
       </c>
       <c r="D250" t="s">
-        <v>852</v>
+        <v>1369</v>
       </c>
       <c r="E250" t="s">
-        <v>853</v>
+        <v>1387</v>
       </c>
       <c r="F250" t="s">
         <v>13</v>
@@ -10910,16 +10835,16 @@
         <v>8</v>
       </c>
       <c r="B251" t="s">
-        <v>854</v>
+        <v>870</v>
       </c>
       <c r="C251" t="s">
-        <v>855</v>
+        <v>871</v>
       </c>
       <c r="D251" t="s">
-        <v>856</v>
+        <v>872</v>
       </c>
       <c r="E251" t="s">
-        <v>857</v>
+        <v>873</v>
       </c>
       <c r="F251" t="s">
         <v>13</v>
@@ -10933,16 +10858,16 @@
         <v>8</v>
       </c>
       <c r="B252" t="s">
-        <v>858</v>
+        <v>874</v>
       </c>
       <c r="C252" t="s">
-        <v>859</v>
+        <v>875</v>
       </c>
       <c r="D252" t="s">
-        <v>860</v>
+        <v>876</v>
       </c>
       <c r="E252" t="s">
-        <v>861</v>
+        <v>877</v>
       </c>
       <c r="F252" t="s">
         <v>13</v>
@@ -10956,16 +10881,16 @@
         <v>8</v>
       </c>
       <c r="B253" t="s">
-        <v>862</v>
+        <v>878</v>
       </c>
       <c r="C253" t="s">
-        <v>863</v>
+        <v>879</v>
       </c>
       <c r="D253" t="s">
-        <v>864</v>
+        <v>880</v>
       </c>
       <c r="E253" t="s">
-        <v>865</v>
+        <v>881</v>
       </c>
       <c r="F253" t="s">
         <v>13</v>
@@ -10979,16 +10904,16 @@
         <v>8</v>
       </c>
       <c r="B254" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="C254" t="s">
-        <v>867</v>
+        <v>883</v>
       </c>
       <c r="D254" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="E254" t="s">
-        <v>869</v>
+        <v>885</v>
       </c>
       <c r="F254" t="s">
         <v>13</v>
@@ -11002,16 +10927,16 @@
         <v>8</v>
       </c>
       <c r="B255" t="s">
-        <v>1351</v>
+        <v>886</v>
       </c>
       <c r="C255" t="s">
-        <v>1404</v>
+        <v>887</v>
       </c>
       <c r="D255" t="s">
-        <v>1369</v>
+        <v>888</v>
       </c>
       <c r="E255" t="s">
-        <v>1387</v>
+        <v>889</v>
       </c>
       <c r="F255" t="s">
         <v>13</v>
@@ -11025,16 +10950,16 @@
         <v>8</v>
       </c>
       <c r="B256" t="s">
-        <v>870</v>
+        <v>890</v>
       </c>
       <c r="C256" t="s">
-        <v>871</v>
+        <v>891</v>
       </c>
       <c r="D256" t="s">
-        <v>872</v>
+        <v>892</v>
       </c>
       <c r="E256" t="s">
-        <v>873</v>
+        <v>893</v>
       </c>
       <c r="F256" t="s">
         <v>13</v>
@@ -11048,16 +10973,16 @@
         <v>8</v>
       </c>
       <c r="B257" t="s">
-        <v>874</v>
+        <v>894</v>
       </c>
       <c r="C257" t="s">
-        <v>875</v>
+        <v>895</v>
       </c>
       <c r="D257" t="s">
-        <v>876</v>
+        <v>896</v>
       </c>
       <c r="E257" t="s">
-        <v>877</v>
+        <v>897</v>
       </c>
       <c r="F257" t="s">
         <v>13</v>
@@ -11071,16 +10996,16 @@
         <v>8</v>
       </c>
       <c r="B258" t="s">
-        <v>878</v>
+        <v>898</v>
       </c>
       <c r="C258" t="s">
-        <v>879</v>
+        <v>899</v>
       </c>
       <c r="D258" t="s">
-        <v>880</v>
+        <v>900</v>
       </c>
       <c r="E258" t="s">
-        <v>881</v>
+        <v>901</v>
       </c>
       <c r="F258" t="s">
         <v>13</v>
@@ -11094,19 +11019,19 @@
         <v>8</v>
       </c>
       <c r="B259" t="s">
-        <v>882</v>
+        <v>1352</v>
       </c>
       <c r="C259" t="s">
-        <v>883</v>
+        <v>1405</v>
       </c>
       <c r="D259" t="s">
-        <v>884</v>
+        <v>1370</v>
       </c>
       <c r="E259" t="s">
-        <v>885</v>
+        <v>1388</v>
       </c>
       <c r="F259" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G259" t="s">
         <v>1323</v>
@@ -11117,19 +11042,16 @@
         <v>8</v>
       </c>
       <c r="B260" t="s">
-        <v>886</v>
-      </c>
-      <c r="C260" t="s">
-        <v>887</v>
+        <v>1509</v>
       </c>
       <c r="D260" t="s">
-        <v>888</v>
+        <v>1502</v>
       </c>
       <c r="E260" t="s">
-        <v>889</v>
+        <v>1516</v>
       </c>
       <c r="F260" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G260" t="s">
         <v>1323</v>
@@ -11140,16 +11062,16 @@
         <v>8</v>
       </c>
       <c r="B261" t="s">
-        <v>890</v>
+        <v>902</v>
       </c>
       <c r="C261" t="s">
-        <v>891</v>
+        <v>903</v>
       </c>
       <c r="D261" t="s">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="E261" t="s">
-        <v>893</v>
+        <v>905</v>
       </c>
       <c r="F261" t="s">
         <v>13</v>
@@ -11163,19 +11085,19 @@
         <v>8</v>
       </c>
       <c r="B262" t="s">
-        <v>894</v>
+        <v>906</v>
       </c>
       <c r="C262" t="s">
-        <v>895</v>
+        <v>907</v>
       </c>
       <c r="D262" t="s">
-        <v>896</v>
+        <v>908</v>
       </c>
       <c r="E262" t="s">
-        <v>897</v>
+        <v>909</v>
       </c>
       <c r="F262" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G262" t="s">
         <v>1323</v>
@@ -11186,19 +11108,19 @@
         <v>8</v>
       </c>
       <c r="B263" t="s">
-        <v>898</v>
+        <v>910</v>
       </c>
       <c r="C263" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="D263" t="s">
-        <v>900</v>
+        <v>912</v>
       </c>
       <c r="E263" t="s">
-        <v>901</v>
+        <v>913</v>
       </c>
       <c r="F263" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G263" t="s">
         <v>1323</v>
@@ -11209,19 +11131,19 @@
         <v>8</v>
       </c>
       <c r="B264" t="s">
-        <v>1352</v>
+        <v>914</v>
       </c>
       <c r="C264" t="s">
-        <v>1405</v>
+        <v>915</v>
       </c>
       <c r="D264" t="s">
-        <v>1370</v>
+        <v>916</v>
       </c>
       <c r="E264" t="s">
-        <v>1388</v>
+        <v>917</v>
       </c>
       <c r="F264" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G264" t="s">
         <v>1323</v>
@@ -11232,16 +11154,19 @@
         <v>8</v>
       </c>
       <c r="B265" t="s">
-        <v>1524</v>
+        <v>918</v>
+      </c>
+      <c r="C265" t="s">
+        <v>919</v>
       </c>
       <c r="D265" t="s">
-        <v>1507</v>
+        <v>920</v>
       </c>
       <c r="E265" t="s">
-        <v>1541</v>
+        <v>921</v>
       </c>
       <c r="F265" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G265" t="s">
         <v>1323</v>
@@ -11252,16 +11177,16 @@
         <v>8</v>
       </c>
       <c r="B266" t="s">
-        <v>902</v>
+        <v>922</v>
       </c>
       <c r="C266" t="s">
-        <v>903</v>
+        <v>923</v>
       </c>
       <c r="D266" t="s">
-        <v>904</v>
+        <v>924</v>
       </c>
       <c r="E266" t="s">
-        <v>905</v>
+        <v>925</v>
       </c>
       <c r="F266" t="s">
         <v>13</v>
@@ -11275,19 +11200,19 @@
         <v>8</v>
       </c>
       <c r="B267" t="s">
-        <v>906</v>
+        <v>926</v>
       </c>
       <c r="C267" t="s">
-        <v>907</v>
+        <v>927</v>
       </c>
       <c r="D267" t="s">
-        <v>908</v>
+        <v>928</v>
       </c>
       <c r="E267" t="s">
-        <v>909</v>
+        <v>929</v>
       </c>
       <c r="F267" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G267" t="s">
         <v>1323</v>
@@ -11298,19 +11223,19 @@
         <v>8</v>
       </c>
       <c r="B268" t="s">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="C268" t="s">
-        <v>911</v>
+        <v>931</v>
       </c>
       <c r="D268" t="s">
-        <v>912</v>
+        <v>932</v>
       </c>
       <c r="E268" t="s">
-        <v>913</v>
+        <v>933</v>
       </c>
       <c r="F268" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G268" t="s">
         <v>1323</v>
@@ -11321,19 +11246,16 @@
         <v>8</v>
       </c>
       <c r="B269" t="s">
-        <v>914</v>
-      </c>
-      <c r="C269" t="s">
-        <v>915</v>
+        <v>1448</v>
       </c>
       <c r="D269" t="s">
-        <v>916</v>
+        <v>1430</v>
       </c>
       <c r="E269" t="s">
-        <v>917</v>
+        <v>1481</v>
       </c>
       <c r="F269" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G269" t="s">
         <v>1323</v>
@@ -11344,16 +11266,16 @@
         <v>8</v>
       </c>
       <c r="B270" t="s">
-        <v>918</v>
+        <v>934</v>
       </c>
       <c r="C270" t="s">
-        <v>919</v>
+        <v>935</v>
       </c>
       <c r="D270" t="s">
-        <v>920</v>
+        <v>936</v>
       </c>
       <c r="E270" t="s">
-        <v>921</v>
+        <v>937</v>
       </c>
       <c r="F270" t="s">
         <v>13</v>
@@ -11367,16 +11289,16 @@
         <v>8</v>
       </c>
       <c r="B271" t="s">
-        <v>922</v>
+        <v>1353</v>
       </c>
       <c r="C271" t="s">
-        <v>923</v>
+        <v>1406</v>
       </c>
       <c r="D271" t="s">
-        <v>924</v>
+        <v>1371</v>
       </c>
       <c r="E271" t="s">
-        <v>925</v>
+        <v>1389</v>
       </c>
       <c r="F271" t="s">
         <v>13</v>
@@ -11390,16 +11312,16 @@
         <v>8</v>
       </c>
       <c r="B272" t="s">
-        <v>926</v>
+        <v>938</v>
       </c>
       <c r="C272" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
       <c r="D272" t="s">
-        <v>928</v>
+        <v>940</v>
       </c>
       <c r="E272" t="s">
-        <v>929</v>
+        <v>941</v>
       </c>
       <c r="F272" t="s">
         <v>13</v>
@@ -11413,16 +11335,16 @@
         <v>8</v>
       </c>
       <c r="B273" t="s">
-        <v>930</v>
+        <v>942</v>
       </c>
       <c r="C273" t="s">
-        <v>931</v>
+        <v>943</v>
       </c>
       <c r="D273" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="E273" t="s">
-        <v>933</v>
+        <v>945</v>
       </c>
       <c r="F273" t="s">
         <v>13</v>
@@ -11436,16 +11358,19 @@
         <v>8</v>
       </c>
       <c r="B274" t="s">
-        <v>1448</v>
+        <v>946</v>
+      </c>
+      <c r="C274" t="s">
+        <v>947</v>
       </c>
       <c r="D274" t="s">
-        <v>1430</v>
+        <v>948</v>
       </c>
       <c r="E274" t="s">
-        <v>1481</v>
+        <v>949</v>
       </c>
       <c r="F274" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G274" t="s">
         <v>1323</v>
@@ -11456,16 +11381,16 @@
         <v>8</v>
       </c>
       <c r="B275" t="s">
-        <v>934</v>
+        <v>950</v>
       </c>
       <c r="C275" t="s">
-        <v>935</v>
+        <v>951</v>
       </c>
       <c r="D275" t="s">
-        <v>936</v>
+        <v>952</v>
       </c>
       <c r="E275" t="s">
-        <v>937</v>
+        <v>953</v>
       </c>
       <c r="F275" t="s">
         <v>13</v>
@@ -11479,16 +11404,16 @@
         <v>8</v>
       </c>
       <c r="B276" t="s">
-        <v>1353</v>
+        <v>954</v>
       </c>
       <c r="C276" t="s">
-        <v>1406</v>
+        <v>955</v>
       </c>
       <c r="D276" t="s">
-        <v>1371</v>
+        <v>956</v>
       </c>
       <c r="E276" t="s">
-        <v>1389</v>
+        <v>957</v>
       </c>
       <c r="F276" t="s">
         <v>13</v>
@@ -11502,16 +11427,16 @@
         <v>8</v>
       </c>
       <c r="B277" t="s">
-        <v>938</v>
+        <v>958</v>
       </c>
       <c r="C277" t="s">
-        <v>939</v>
+        <v>959</v>
       </c>
       <c r="D277" t="s">
-        <v>940</v>
+        <v>960</v>
       </c>
       <c r="E277" t="s">
-        <v>941</v>
+        <v>961</v>
       </c>
       <c r="F277" t="s">
         <v>13</v>
@@ -11525,16 +11450,16 @@
         <v>8</v>
       </c>
       <c r="B278" t="s">
-        <v>942</v>
+        <v>962</v>
       </c>
       <c r="C278" t="s">
-        <v>943</v>
+        <v>963</v>
       </c>
       <c r="D278" t="s">
-        <v>944</v>
+        <v>964</v>
       </c>
       <c r="E278" t="s">
-        <v>945</v>
+        <v>965</v>
       </c>
       <c r="F278" t="s">
         <v>13</v>
@@ -11548,16 +11473,16 @@
         <v>8</v>
       </c>
       <c r="B279" t="s">
-        <v>946</v>
+        <v>966</v>
       </c>
       <c r="C279" t="s">
-        <v>947</v>
+        <v>967</v>
       </c>
       <c r="D279" t="s">
-        <v>948</v>
+        <v>968</v>
       </c>
       <c r="E279" t="s">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="F279" t="s">
         <v>13</v>
@@ -11571,16 +11496,16 @@
         <v>8</v>
       </c>
       <c r="B280" t="s">
-        <v>950</v>
+        <v>1354</v>
       </c>
       <c r="C280" t="s">
-        <v>951</v>
+        <v>1407</v>
       </c>
       <c r="D280" t="s">
-        <v>952</v>
+        <v>1372</v>
       </c>
       <c r="E280" t="s">
-        <v>953</v>
+        <v>1390</v>
       </c>
       <c r="F280" t="s">
         <v>13</v>
@@ -11594,16 +11519,16 @@
         <v>8</v>
       </c>
       <c r="B281" t="s">
-        <v>954</v>
+        <v>970</v>
       </c>
       <c r="C281" t="s">
-        <v>955</v>
+        <v>971</v>
       </c>
       <c r="D281" t="s">
-        <v>956</v>
+        <v>972</v>
       </c>
       <c r="E281" t="s">
-        <v>957</v>
+        <v>973</v>
       </c>
       <c r="F281" t="s">
         <v>13</v>
@@ -11617,16 +11542,16 @@
         <v>8</v>
       </c>
       <c r="B282" t="s">
-        <v>958</v>
+        <v>974</v>
       </c>
       <c r="C282" t="s">
-        <v>959</v>
+        <v>975</v>
       </c>
       <c r="D282" t="s">
-        <v>960</v>
+        <v>976</v>
       </c>
       <c r="E282" t="s">
-        <v>961</v>
+        <v>977</v>
       </c>
       <c r="F282" t="s">
         <v>13</v>
@@ -11640,19 +11565,16 @@
         <v>8</v>
       </c>
       <c r="B283" t="s">
-        <v>962</v>
-      </c>
-      <c r="C283" t="s">
-        <v>963</v>
+        <v>1449</v>
       </c>
       <c r="D283" t="s">
-        <v>964</v>
+        <v>1431</v>
       </c>
       <c r="E283" t="s">
-        <v>965</v>
+        <v>1482</v>
       </c>
       <c r="F283" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G283" t="s">
         <v>1323</v>
@@ -11663,16 +11585,16 @@
         <v>8</v>
       </c>
       <c r="B284" t="s">
-        <v>966</v>
+        <v>978</v>
       </c>
       <c r="C284" t="s">
-        <v>967</v>
+        <v>979</v>
       </c>
       <c r="D284" t="s">
-        <v>968</v>
+        <v>980</v>
       </c>
       <c r="E284" t="s">
-        <v>969</v>
+        <v>981</v>
       </c>
       <c r="F284" t="s">
         <v>13</v>
@@ -11686,19 +11608,19 @@
         <v>8</v>
       </c>
       <c r="B285" t="s">
-        <v>1354</v>
+        <v>982</v>
       </c>
       <c r="C285" t="s">
-        <v>1407</v>
+        <v>983</v>
       </c>
       <c r="D285" t="s">
-        <v>1372</v>
+        <v>984</v>
       </c>
       <c r="E285" t="s">
-        <v>1390</v>
+        <v>985</v>
       </c>
       <c r="F285" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G285" t="s">
         <v>1323</v>
@@ -11709,16 +11631,16 @@
         <v>8</v>
       </c>
       <c r="B286" t="s">
-        <v>970</v>
+        <v>986</v>
       </c>
       <c r="C286" t="s">
-        <v>971</v>
+        <v>987</v>
       </c>
       <c r="D286" t="s">
-        <v>972</v>
+        <v>988</v>
       </c>
       <c r="E286" t="s">
-        <v>973</v>
+        <v>989</v>
       </c>
       <c r="F286" t="s">
         <v>13</v>
@@ -11732,19 +11654,19 @@
         <v>8</v>
       </c>
       <c r="B287" t="s">
-        <v>974</v>
+        <v>990</v>
       </c>
       <c r="C287" t="s">
-        <v>975</v>
+        <v>991</v>
       </c>
       <c r="D287" t="s">
-        <v>976</v>
+        <v>992</v>
       </c>
       <c r="E287" t="s">
-        <v>977</v>
+        <v>993</v>
       </c>
       <c r="F287" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G287" t="s">
         <v>1323</v>
@@ -11755,16 +11677,19 @@
         <v>8</v>
       </c>
       <c r="B288" t="s">
-        <v>1449</v>
+        <v>994</v>
+      </c>
+      <c r="C288" t="s">
+        <v>995</v>
       </c>
       <c r="D288" t="s">
-        <v>1431</v>
+        <v>996</v>
       </c>
       <c r="E288" t="s">
-        <v>1482</v>
+        <v>997</v>
       </c>
       <c r="F288" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G288" t="s">
         <v>1323</v>
@@ -11775,16 +11700,16 @@
         <v>8</v>
       </c>
       <c r="B289" t="s">
-        <v>978</v>
+        <v>998</v>
       </c>
       <c r="C289" t="s">
-        <v>979</v>
+        <v>999</v>
       </c>
       <c r="D289" t="s">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="E289" t="s">
-        <v>981</v>
+        <v>1001</v>
       </c>
       <c r="F289" t="s">
         <v>13</v>
@@ -11798,19 +11723,19 @@
         <v>8</v>
       </c>
       <c r="B290" t="s">
-        <v>982</v>
+        <v>1002</v>
       </c>
       <c r="C290" t="s">
-        <v>983</v>
+        <v>1003</v>
       </c>
       <c r="D290" t="s">
-        <v>984</v>
+        <v>1004</v>
       </c>
       <c r="E290" t="s">
-        <v>985</v>
+        <v>1005</v>
       </c>
       <c r="F290" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G290" t="s">
         <v>1323</v>
@@ -11821,16 +11746,16 @@
         <v>8</v>
       </c>
       <c r="B291" t="s">
-        <v>986</v>
+        <v>1006</v>
       </c>
       <c r="C291" t="s">
-        <v>987</v>
+        <v>1007</v>
       </c>
       <c r="D291" t="s">
-        <v>988</v>
+        <v>1008</v>
       </c>
       <c r="E291" t="s">
-        <v>989</v>
+        <v>1009</v>
       </c>
       <c r="F291" t="s">
         <v>13</v>
@@ -11844,16 +11769,16 @@
         <v>8</v>
       </c>
       <c r="B292" t="s">
-        <v>990</v>
+        <v>1010</v>
       </c>
       <c r="C292" t="s">
-        <v>991</v>
+        <v>1011</v>
       </c>
       <c r="D292" t="s">
-        <v>992</v>
+        <v>1012</v>
       </c>
       <c r="E292" t="s">
-        <v>993</v>
+        <v>1013</v>
       </c>
       <c r="F292" t="s">
         <v>0</v>
@@ -11867,19 +11792,19 @@
         <v>8</v>
       </c>
       <c r="B293" t="s">
-        <v>994</v>
+        <v>1014</v>
       </c>
       <c r="C293" t="s">
-        <v>995</v>
+        <v>1015</v>
       </c>
       <c r="D293" t="s">
-        <v>996</v>
+        <v>1016</v>
       </c>
       <c r="E293" t="s">
-        <v>997</v>
+        <v>1017</v>
       </c>
       <c r="F293" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G293" t="s">
         <v>1323</v>
@@ -11890,19 +11815,19 @@
         <v>8</v>
       </c>
       <c r="B294" t="s">
-        <v>998</v>
+        <v>1018</v>
       </c>
       <c r="C294" t="s">
-        <v>999</v>
+        <v>1019</v>
       </c>
       <c r="D294" t="s">
-        <v>1000</v>
+        <v>1020</v>
       </c>
       <c r="E294" t="s">
-        <v>1001</v>
+        <v>1021</v>
       </c>
       <c r="F294" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G294" t="s">
         <v>1323</v>
@@ -11913,16 +11838,16 @@
         <v>8</v>
       </c>
       <c r="B295" t="s">
-        <v>1002</v>
+        <v>1022</v>
       </c>
       <c r="C295" t="s">
-        <v>1003</v>
+        <v>1023</v>
       </c>
       <c r="D295" t="s">
-        <v>1004</v>
+        <v>1024</v>
       </c>
       <c r="E295" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="F295" t="s">
         <v>13</v>
@@ -11936,16 +11861,16 @@
         <v>8</v>
       </c>
       <c r="B296" t="s">
-        <v>1006</v>
+        <v>1026</v>
       </c>
       <c r="C296" t="s">
-        <v>1007</v>
+        <v>1027</v>
       </c>
       <c r="D296" t="s">
-        <v>1008</v>
+        <v>1028</v>
       </c>
       <c r="E296" t="s">
-        <v>1009</v>
+        <v>1029</v>
       </c>
       <c r="F296" t="s">
         <v>13</v>
@@ -11959,19 +11884,19 @@
         <v>8</v>
       </c>
       <c r="B297" t="s">
-        <v>1010</v>
+        <v>1030</v>
       </c>
       <c r="C297" t="s">
-        <v>1011</v>
+        <v>1031</v>
       </c>
       <c r="D297" t="s">
-        <v>1012</v>
+        <v>1032</v>
       </c>
       <c r="E297" t="s">
-        <v>1013</v>
+        <v>1033</v>
       </c>
       <c r="F297" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G297" t="s">
         <v>1323</v>
@@ -11982,19 +11907,19 @@
         <v>8</v>
       </c>
       <c r="B298" t="s">
-        <v>1014</v>
+        <v>1034</v>
       </c>
       <c r="C298" t="s">
-        <v>1015</v>
+        <v>1035</v>
       </c>
       <c r="D298" t="s">
-        <v>1016</v>
+        <v>1036</v>
       </c>
       <c r="E298" t="s">
-        <v>1017</v>
+        <v>1037</v>
       </c>
       <c r="F298" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G298" t="s">
         <v>1323</v>
@@ -12005,16 +11930,16 @@
         <v>8</v>
       </c>
       <c r="B299" t="s">
-        <v>1018</v>
+        <v>1038</v>
       </c>
       <c r="C299" t="s">
-        <v>1019</v>
+        <v>1039</v>
       </c>
       <c r="D299" t="s">
-        <v>1020</v>
+        <v>1040</v>
       </c>
       <c r="E299" t="s">
-        <v>1021</v>
+        <v>1041</v>
       </c>
       <c r="F299" t="s">
         <v>0</v>
@@ -12028,16 +11953,16 @@
         <v>8</v>
       </c>
       <c r="B300" t="s">
-        <v>1022</v>
+        <v>1042</v>
       </c>
       <c r="C300" t="s">
-        <v>1023</v>
+        <v>1043</v>
       </c>
       <c r="D300" t="s">
-        <v>1024</v>
+        <v>1044</v>
       </c>
       <c r="E300" t="s">
-        <v>1025</v>
+        <v>1045</v>
       </c>
       <c r="F300" t="s">
         <v>13</v>
@@ -12051,16 +11976,16 @@
         <v>8</v>
       </c>
       <c r="B301" t="s">
-        <v>1026</v>
+        <v>1046</v>
       </c>
       <c r="C301" t="s">
-        <v>1027</v>
+        <v>1047</v>
       </c>
       <c r="D301" t="s">
-        <v>1028</v>
+        <v>1048</v>
       </c>
       <c r="E301" t="s">
-        <v>1029</v>
+        <v>1049</v>
       </c>
       <c r="F301" t="s">
         <v>13</v>
@@ -12074,16 +11999,16 @@
         <v>8</v>
       </c>
       <c r="B302" t="s">
-        <v>1030</v>
+        <v>1050</v>
       </c>
       <c r="C302" t="s">
-        <v>1031</v>
+        <v>1051</v>
       </c>
       <c r="D302" t="s">
-        <v>1032</v>
+        <v>1052</v>
       </c>
       <c r="E302" t="s">
-        <v>1033</v>
+        <v>1053</v>
       </c>
       <c r="F302" t="s">
         <v>13</v>
@@ -12097,16 +12022,16 @@
         <v>8</v>
       </c>
       <c r="B303" t="s">
-        <v>1034</v>
+        <v>1054</v>
       </c>
       <c r="C303" t="s">
-        <v>1035</v>
+        <v>1055</v>
       </c>
       <c r="D303" t="s">
-        <v>1036</v>
+        <v>1056</v>
       </c>
       <c r="E303" t="s">
-        <v>1037</v>
+        <v>1057</v>
       </c>
       <c r="F303" t="s">
         <v>13</v>
@@ -12120,19 +12045,19 @@
         <v>8</v>
       </c>
       <c r="B304" t="s">
-        <v>1038</v>
+        <v>1058</v>
       </c>
       <c r="C304" t="s">
-        <v>1039</v>
+        <v>1059</v>
       </c>
       <c r="D304" t="s">
-        <v>1040</v>
+        <v>1060</v>
       </c>
       <c r="E304" t="s">
-        <v>1041</v>
+        <v>1061</v>
       </c>
       <c r="F304" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G304" t="s">
         <v>1323</v>
@@ -12143,19 +12068,19 @@
         <v>8</v>
       </c>
       <c r="B305" t="s">
-        <v>1042</v>
+        <v>1062</v>
       </c>
       <c r="C305" t="s">
-        <v>1043</v>
+        <v>1063</v>
       </c>
       <c r="D305" t="s">
-        <v>1044</v>
+        <v>1064</v>
       </c>
       <c r="E305" t="s">
-        <v>1045</v>
+        <v>1065</v>
       </c>
       <c r="F305" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G305" t="s">
         <v>1323</v>
@@ -12166,19 +12091,16 @@
         <v>8</v>
       </c>
       <c r="B306" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C306" t="s">
-        <v>1047</v>
+        <v>1066</v>
       </c>
       <c r="D306" t="s">
-        <v>1048</v>
+        <v>1067</v>
       </c>
       <c r="E306" t="s">
-        <v>1049</v>
+        <v>1068</v>
       </c>
       <c r="F306" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G306" t="s">
         <v>1323</v>
@@ -12189,16 +12111,16 @@
         <v>8</v>
       </c>
       <c r="B307" t="s">
-        <v>1050</v>
+        <v>1069</v>
       </c>
       <c r="C307" t="s">
-        <v>1051</v>
+        <v>1070</v>
       </c>
       <c r="D307" t="s">
-        <v>1052</v>
+        <v>1071</v>
       </c>
       <c r="E307" t="s">
-        <v>1053</v>
+        <v>1072</v>
       </c>
       <c r="F307" t="s">
         <v>13</v>
@@ -12212,16 +12134,16 @@
         <v>8</v>
       </c>
       <c r="B308" t="s">
-        <v>1054</v>
+        <v>1458</v>
       </c>
       <c r="C308" t="s">
-        <v>1055</v>
+        <v>1473</v>
       </c>
       <c r="D308" t="s">
-        <v>1056</v>
+        <v>1440</v>
       </c>
       <c r="E308" t="s">
-        <v>1057</v>
+        <v>1491</v>
       </c>
       <c r="F308" t="s">
         <v>13</v>
@@ -12235,16 +12157,16 @@
         <v>8</v>
       </c>
       <c r="B309" t="s">
-        <v>1058</v>
+        <v>1452</v>
       </c>
       <c r="C309" t="s">
-        <v>1059</v>
+        <v>1467</v>
       </c>
       <c r="D309" t="s">
-        <v>1060</v>
+        <v>1434</v>
       </c>
       <c r="E309" t="s">
-        <v>1061</v>
+        <v>1485</v>
       </c>
       <c r="F309" t="s">
         <v>13</v>
@@ -12258,19 +12180,19 @@
         <v>8</v>
       </c>
       <c r="B310" t="s">
-        <v>1062</v>
+        <v>1073</v>
       </c>
       <c r="C310" t="s">
-        <v>1063</v>
+        <v>1074</v>
       </c>
       <c r="D310" t="s">
-        <v>1064</v>
+        <v>1075</v>
       </c>
       <c r="E310" t="s">
-        <v>1065</v>
+        <v>1076</v>
       </c>
       <c r="F310" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G310" t="s">
         <v>1323</v>
@@ -12281,16 +12203,19 @@
         <v>8</v>
       </c>
       <c r="B311" t="s">
-        <v>1066</v>
+        <v>1077</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1078</v>
       </c>
       <c r="D311" t="s">
-        <v>1067</v>
+        <v>1079</v>
       </c>
       <c r="E311" t="s">
-        <v>1068</v>
+        <v>1080</v>
       </c>
       <c r="F311" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G311" t="s">
         <v>1323</v>
@@ -12301,16 +12226,16 @@
         <v>8</v>
       </c>
       <c r="B312" t="s">
-        <v>1069</v>
+        <v>1081</v>
       </c>
       <c r="C312" t="s">
-        <v>1070</v>
+        <v>1082</v>
       </c>
       <c r="D312" t="s">
-        <v>1071</v>
+        <v>1083</v>
       </c>
       <c r="E312" t="s">
-        <v>1072</v>
+        <v>1084</v>
       </c>
       <c r="F312" t="s">
         <v>13</v>
@@ -12324,16 +12249,16 @@
         <v>8</v>
       </c>
       <c r="B313" t="s">
-        <v>1458</v>
+        <v>1085</v>
       </c>
       <c r="C313" t="s">
-        <v>1473</v>
+        <v>1086</v>
       </c>
       <c r="D313" t="s">
-        <v>1440</v>
+        <v>1087</v>
       </c>
       <c r="E313" t="s">
-        <v>1491</v>
+        <v>1088</v>
       </c>
       <c r="F313" t="s">
         <v>13</v>
@@ -12347,16 +12272,16 @@
         <v>8</v>
       </c>
       <c r="B314" t="s">
-        <v>1452</v>
+        <v>1089</v>
       </c>
       <c r="C314" t="s">
-        <v>1467</v>
+        <v>1090</v>
       </c>
       <c r="D314" t="s">
-        <v>1434</v>
+        <v>1091</v>
       </c>
       <c r="E314" t="s">
-        <v>1485</v>
+        <v>1092</v>
       </c>
       <c r="F314" t="s">
         <v>13</v>
@@ -12370,16 +12295,16 @@
         <v>8</v>
       </c>
       <c r="B315" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="C315" t="s">
-        <v>1074</v>
+        <v>1094</v>
       </c>
       <c r="D315" t="s">
-        <v>1075</v>
+        <v>1095</v>
       </c>
       <c r="E315" t="s">
-        <v>1076</v>
+        <v>1096</v>
       </c>
       <c r="F315" t="s">
         <v>13</v>
@@ -12393,16 +12318,16 @@
         <v>8</v>
       </c>
       <c r="B316" t="s">
-        <v>1077</v>
+        <v>1355</v>
       </c>
       <c r="C316" t="s">
-        <v>1078</v>
+        <v>1408</v>
       </c>
       <c r="D316" t="s">
-        <v>1079</v>
+        <v>1373</v>
       </c>
       <c r="E316" t="s">
-        <v>1080</v>
+        <v>1391</v>
       </c>
       <c r="F316" t="s">
         <v>13</v>
@@ -12416,16 +12341,16 @@
         <v>8</v>
       </c>
       <c r="B317" t="s">
-        <v>1081</v>
+        <v>1097</v>
       </c>
       <c r="C317" t="s">
-        <v>1082</v>
+        <v>1098</v>
       </c>
       <c r="D317" t="s">
-        <v>1083</v>
+        <v>1099</v>
       </c>
       <c r="E317" t="s">
-        <v>1084</v>
+        <v>1100</v>
       </c>
       <c r="F317" t="s">
         <v>13</v>
@@ -12439,16 +12364,16 @@
         <v>8</v>
       </c>
       <c r="B318" t="s">
-        <v>1085</v>
+        <v>1356</v>
       </c>
       <c r="C318" t="s">
-        <v>1086</v>
+        <v>1409</v>
       </c>
       <c r="D318" t="s">
-        <v>1087</v>
+        <v>1374</v>
       </c>
       <c r="E318" t="s">
-        <v>1088</v>
+        <v>1392</v>
       </c>
       <c r="F318" t="s">
         <v>13</v>
@@ -12462,16 +12387,16 @@
         <v>8</v>
       </c>
       <c r="B319" t="s">
-        <v>1089</v>
+        <v>1101</v>
       </c>
       <c r="C319" t="s">
-        <v>1090</v>
+        <v>1102</v>
       </c>
       <c r="D319" t="s">
-        <v>1091</v>
+        <v>1103</v>
       </c>
       <c r="E319" t="s">
-        <v>1092</v>
+        <v>1104</v>
       </c>
       <c r="F319" t="s">
         <v>13</v>
@@ -12485,16 +12410,16 @@
         <v>8</v>
       </c>
       <c r="B320" t="s">
-        <v>1093</v>
+        <v>1105</v>
       </c>
       <c r="C320" t="s">
-        <v>1094</v>
+        <v>1106</v>
       </c>
       <c r="D320" t="s">
-        <v>1095</v>
+        <v>1107</v>
       </c>
       <c r="E320" t="s">
-        <v>1096</v>
+        <v>1108</v>
       </c>
       <c r="F320" t="s">
         <v>13</v>
@@ -12508,16 +12433,16 @@
         <v>8</v>
       </c>
       <c r="B321" t="s">
-        <v>1355</v>
+        <v>1109</v>
       </c>
       <c r="C321" t="s">
-        <v>1408</v>
+        <v>1110</v>
       </c>
       <c r="D321" t="s">
-        <v>1373</v>
+        <v>1111</v>
       </c>
       <c r="E321" t="s">
-        <v>1391</v>
+        <v>1112</v>
       </c>
       <c r="F321" t="s">
         <v>13</v>
@@ -12531,19 +12456,19 @@
         <v>8</v>
       </c>
       <c r="B322" t="s">
-        <v>1097</v>
+        <v>1113</v>
       </c>
       <c r="C322" t="s">
-        <v>1098</v>
+        <v>1114</v>
       </c>
       <c r="D322" t="s">
-        <v>1099</v>
+        <v>1115</v>
       </c>
       <c r="E322" t="s">
-        <v>1100</v>
+        <v>1116</v>
       </c>
       <c r="F322" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G322" t="s">
         <v>1323</v>
@@ -12554,19 +12479,19 @@
         <v>8</v>
       </c>
       <c r="B323" t="s">
-        <v>1356</v>
+        <v>1117</v>
       </c>
       <c r="C323" t="s">
-        <v>1409</v>
+        <v>1118</v>
       </c>
       <c r="D323" t="s">
-        <v>1374</v>
+        <v>1119</v>
       </c>
       <c r="E323" t="s">
-        <v>1392</v>
+        <v>1120</v>
       </c>
       <c r="F323" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G323" t="s">
         <v>1323</v>
@@ -12577,16 +12502,16 @@
         <v>8</v>
       </c>
       <c r="B324" t="s">
-        <v>1101</v>
+        <v>1357</v>
       </c>
       <c r="C324" t="s">
-        <v>1102</v>
+        <v>1410</v>
       </c>
       <c r="D324" t="s">
-        <v>1103</v>
+        <v>1375</v>
       </c>
       <c r="E324" t="s">
-        <v>1104</v>
+        <v>1393</v>
       </c>
       <c r="F324" t="s">
         <v>13</v>
@@ -12600,19 +12525,16 @@
         <v>8</v>
       </c>
       <c r="B325" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C325" t="s">
-        <v>1106</v>
+        <v>1337</v>
       </c>
       <c r="D325" t="s">
-        <v>1107</v>
+        <v>1328</v>
       </c>
       <c r="E325" t="s">
-        <v>1108</v>
+        <v>1426</v>
       </c>
       <c r="F325" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G325" t="s">
         <v>1323</v>
@@ -12623,16 +12545,16 @@
         <v>8</v>
       </c>
       <c r="B326" t="s">
-        <v>1109</v>
+        <v>1121</v>
       </c>
       <c r="C326" t="s">
-        <v>1110</v>
+        <v>1122</v>
       </c>
       <c r="D326" t="s">
-        <v>1111</v>
+        <v>1123</v>
       </c>
       <c r="E326" t="s">
-        <v>1112</v>
+        <v>1124</v>
       </c>
       <c r="F326" t="s">
         <v>13</v>
@@ -12646,19 +12568,19 @@
         <v>8</v>
       </c>
       <c r="B327" t="s">
-        <v>1113</v>
+        <v>1125</v>
       </c>
       <c r="C327" t="s">
-        <v>1114</v>
+        <v>1126</v>
       </c>
       <c r="D327" t="s">
-        <v>1115</v>
+        <v>1127</v>
       </c>
       <c r="E327" t="s">
-        <v>1116</v>
+        <v>1128</v>
       </c>
       <c r="F327" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G327" t="s">
         <v>1323</v>
@@ -12669,19 +12591,19 @@
         <v>8</v>
       </c>
       <c r="B328" t="s">
-        <v>1117</v>
+        <v>1129</v>
       </c>
       <c r="C328" t="s">
-        <v>1118</v>
+        <v>1130</v>
       </c>
       <c r="D328" t="s">
-        <v>1119</v>
+        <v>1131</v>
       </c>
       <c r="E328" t="s">
-        <v>1120</v>
+        <v>1132</v>
       </c>
       <c r="F328" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G328" t="s">
         <v>1323</v>
@@ -12692,16 +12614,16 @@
         <v>8</v>
       </c>
       <c r="B329" t="s">
-        <v>1357</v>
+        <v>1133</v>
       </c>
       <c r="C329" t="s">
-        <v>1410</v>
+        <v>1134</v>
       </c>
       <c r="D329" t="s">
-        <v>1375</v>
+        <v>1135</v>
       </c>
       <c r="E329" t="s">
-        <v>1393</v>
+        <v>1136</v>
       </c>
       <c r="F329" t="s">
         <v>13</v>
@@ -12715,16 +12637,19 @@
         <v>8</v>
       </c>
       <c r="B330" t="s">
-        <v>1337</v>
+        <v>1137</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1138</v>
       </c>
       <c r="D330" t="s">
-        <v>1328</v>
+        <v>1139</v>
       </c>
       <c r="E330" t="s">
-        <v>1426</v>
+        <v>1140</v>
       </c>
       <c r="F330" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G330" t="s">
         <v>1323</v>
@@ -12735,19 +12660,16 @@
         <v>8</v>
       </c>
       <c r="B331" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C331" t="s">
-        <v>1122</v>
+        <v>1511</v>
       </c>
       <c r="D331" t="s">
-        <v>1123</v>
+        <v>1504</v>
       </c>
       <c r="E331" t="s">
-        <v>1124</v>
+        <v>1518</v>
       </c>
       <c r="F331" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G331" t="s">
         <v>1323</v>
@@ -12758,16 +12680,16 @@
         <v>8</v>
       </c>
       <c r="B332" t="s">
-        <v>1125</v>
+        <v>1141</v>
       </c>
       <c r="C332" t="s">
-        <v>1126</v>
+        <v>1142</v>
       </c>
       <c r="D332" t="s">
-        <v>1127</v>
+        <v>1143</v>
       </c>
       <c r="E332" t="s">
-        <v>1128</v>
+        <v>1144</v>
       </c>
       <c r="F332" t="s">
         <v>13</v>
@@ -12781,16 +12703,16 @@
         <v>8</v>
       </c>
       <c r="B333" t="s">
-        <v>1129</v>
+        <v>1145</v>
       </c>
       <c r="C333" t="s">
-        <v>1130</v>
+        <v>1146</v>
       </c>
       <c r="D333" t="s">
-        <v>1131</v>
+        <v>1147</v>
       </c>
       <c r="E333" t="s">
-        <v>1132</v>
+        <v>1148</v>
       </c>
       <c r="F333" t="s">
         <v>13</v>
@@ -12804,16 +12726,16 @@
         <v>8</v>
       </c>
       <c r="B334" t="s">
-        <v>1133</v>
+        <v>1149</v>
       </c>
       <c r="C334" t="s">
-        <v>1134</v>
+        <v>1150</v>
       </c>
       <c r="D334" t="s">
-        <v>1135</v>
+        <v>1151</v>
       </c>
       <c r="E334" t="s">
-        <v>1136</v>
+        <v>1152</v>
       </c>
       <c r="F334" t="s">
         <v>13</v>
@@ -12827,16 +12749,16 @@
         <v>8</v>
       </c>
       <c r="B335" t="s">
-        <v>1137</v>
+        <v>1153</v>
       </c>
       <c r="C335" t="s">
-        <v>1138</v>
+        <v>1154</v>
       </c>
       <c r="D335" t="s">
-        <v>1139</v>
+        <v>1155</v>
       </c>
       <c r="E335" t="s">
-        <v>1140</v>
+        <v>1156</v>
       </c>
       <c r="F335" t="s">
         <v>13</v>
@@ -12850,13 +12772,13 @@
         <v>8</v>
       </c>
       <c r="B336" t="s">
-        <v>1529</v>
+        <v>1338</v>
       </c>
       <c r="D336" t="s">
-        <v>1512</v>
+        <v>1329</v>
       </c>
       <c r="E336" t="s">
-        <v>1546</v>
+        <v>1427</v>
       </c>
       <c r="F336" t="s">
         <v>0</v>
@@ -12870,19 +12792,16 @@
         <v>8</v>
       </c>
       <c r="B337" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C337" t="s">
-        <v>1142</v>
+        <v>1157</v>
       </c>
       <c r="D337" t="s">
-        <v>1143</v>
+        <v>1158</v>
       </c>
       <c r="E337" t="s">
-        <v>1144</v>
+        <v>1159</v>
       </c>
       <c r="F337" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G337" t="s">
         <v>1323</v>
@@ -12893,16 +12812,16 @@
         <v>8</v>
       </c>
       <c r="B338" t="s">
-        <v>1145</v>
+        <v>1160</v>
       </c>
       <c r="C338" t="s">
-        <v>1146</v>
+        <v>1161</v>
       </c>
       <c r="D338" t="s">
-        <v>1147</v>
+        <v>1162</v>
       </c>
       <c r="E338" t="s">
-        <v>1148</v>
+        <v>1163</v>
       </c>
       <c r="F338" t="s">
         <v>13</v>
@@ -12916,16 +12835,16 @@
         <v>8</v>
       </c>
       <c r="B339" t="s">
-        <v>1149</v>
+        <v>1164</v>
       </c>
       <c r="C339" t="s">
-        <v>1150</v>
+        <v>1165</v>
       </c>
       <c r="D339" t="s">
-        <v>1151</v>
+        <v>1166</v>
       </c>
       <c r="E339" t="s">
-        <v>1152</v>
+        <v>1167</v>
       </c>
       <c r="F339" t="s">
         <v>13</v>
@@ -12939,16 +12858,16 @@
         <v>8</v>
       </c>
       <c r="B340" t="s">
-        <v>1153</v>
+        <v>1168</v>
       </c>
       <c r="C340" t="s">
-        <v>1154</v>
+        <v>1169</v>
       </c>
       <c r="D340" t="s">
-        <v>1155</v>
+        <v>1170</v>
       </c>
       <c r="E340" t="s">
-        <v>1156</v>
+        <v>1171</v>
       </c>
       <c r="F340" t="s">
         <v>13</v>
@@ -12962,13 +12881,16 @@
         <v>8</v>
       </c>
       <c r="B341" t="s">
-        <v>1338</v>
+        <v>1172</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1173</v>
       </c>
       <c r="D341" t="s">
-        <v>1329</v>
+        <v>1174</v>
       </c>
       <c r="E341" t="s">
-        <v>1427</v>
+        <v>1175</v>
       </c>
       <c r="F341" t="s">
         <v>0</v>
@@ -12982,16 +12904,19 @@
         <v>8</v>
       </c>
       <c r="B342" t="s">
-        <v>1157</v>
+        <v>1176</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1177</v>
       </c>
       <c r="D342" t="s">
-        <v>1158</v>
+        <v>1178</v>
       </c>
       <c r="E342" t="s">
-        <v>1159</v>
+        <v>1179</v>
       </c>
       <c r="F342" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G342" t="s">
         <v>1323</v>
@@ -13002,16 +12927,16 @@
         <v>8</v>
       </c>
       <c r="B343" t="s">
-        <v>1160</v>
+        <v>1459</v>
       </c>
       <c r="C343" t="s">
-        <v>1161</v>
+        <v>1474</v>
       </c>
       <c r="D343" t="s">
-        <v>1162</v>
+        <v>1441</v>
       </c>
       <c r="E343" t="s">
-        <v>1163</v>
+        <v>1492</v>
       </c>
       <c r="F343" t="s">
         <v>13</v>
@@ -13025,19 +12950,19 @@
         <v>8</v>
       </c>
       <c r="B344" t="s">
-        <v>1164</v>
+        <v>1180</v>
       </c>
       <c r="C344" t="s">
-        <v>1165</v>
+        <v>1181</v>
       </c>
       <c r="D344" t="s">
-        <v>1166</v>
+        <v>1182</v>
       </c>
       <c r="E344" t="s">
-        <v>1167</v>
+        <v>1183</v>
       </c>
       <c r="F344" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G344" t="s">
         <v>1323</v>
@@ -13048,16 +12973,16 @@
         <v>8</v>
       </c>
       <c r="B345" t="s">
-        <v>1168</v>
+        <v>1184</v>
       </c>
       <c r="C345" t="s">
-        <v>1169</v>
+        <v>1185</v>
       </c>
       <c r="D345" t="s">
-        <v>1170</v>
+        <v>1186</v>
       </c>
       <c r="E345" t="s">
-        <v>1171</v>
+        <v>1187</v>
       </c>
       <c r="F345" t="s">
         <v>13</v>
@@ -13071,19 +12996,19 @@
         <v>8</v>
       </c>
       <c r="B346" t="s">
-        <v>1172</v>
+        <v>1460</v>
       </c>
       <c r="C346" t="s">
-        <v>1173</v>
+        <v>1475</v>
       </c>
       <c r="D346" t="s">
-        <v>1174</v>
+        <v>1442</v>
       </c>
       <c r="E346" t="s">
-        <v>1175</v>
+        <v>1493</v>
       </c>
       <c r="F346" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G346" t="s">
         <v>1323</v>
@@ -13094,16 +13019,16 @@
         <v>8</v>
       </c>
       <c r="B347" t="s">
-        <v>1176</v>
+        <v>1188</v>
       </c>
       <c r="C347" t="s">
-        <v>1177</v>
+        <v>1189</v>
       </c>
       <c r="D347" t="s">
-        <v>1178</v>
+        <v>1190</v>
       </c>
       <c r="E347" t="s">
-        <v>1179</v>
+        <v>1191</v>
       </c>
       <c r="F347" t="s">
         <v>13</v>
@@ -13117,16 +13042,16 @@
         <v>8</v>
       </c>
       <c r="B348" t="s">
-        <v>1459</v>
+        <v>1192</v>
       </c>
       <c r="C348" t="s">
-        <v>1474</v>
+        <v>1193</v>
       </c>
       <c r="D348" t="s">
-        <v>1441</v>
+        <v>1194</v>
       </c>
       <c r="E348" t="s">
-        <v>1492</v>
+        <v>1195</v>
       </c>
       <c r="F348" t="s">
         <v>13</v>
@@ -13140,19 +13065,19 @@
         <v>8</v>
       </c>
       <c r="B349" t="s">
-        <v>1180</v>
+        <v>1196</v>
       </c>
       <c r="C349" t="s">
-        <v>1181</v>
+        <v>1197</v>
       </c>
       <c r="D349" t="s">
-        <v>1182</v>
+        <v>1198</v>
       </c>
       <c r="E349" t="s">
-        <v>1183</v>
+        <v>1199</v>
       </c>
       <c r="F349" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G349" t="s">
         <v>1323</v>
@@ -13163,16 +13088,19 @@
         <v>8</v>
       </c>
       <c r="B350" t="s">
-        <v>1516</v>
+        <v>1200</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1201</v>
       </c>
       <c r="D350" t="s">
-        <v>1499</v>
+        <v>1202</v>
       </c>
       <c r="E350" t="s">
-        <v>1533</v>
+        <v>1203</v>
       </c>
       <c r="F350" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G350" t="s">
         <v>1323</v>
@@ -13183,16 +13111,19 @@
         <v>8</v>
       </c>
       <c r="B351" t="s">
-        <v>1517</v>
+        <v>1204</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1205</v>
       </c>
       <c r="D351" t="s">
-        <v>1500</v>
+        <v>1206</v>
       </c>
       <c r="E351" t="s">
-        <v>1534</v>
+        <v>1207</v>
       </c>
       <c r="F351" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G351" t="s">
         <v>1323</v>
@@ -13203,13 +13134,16 @@
         <v>8</v>
       </c>
       <c r="B352" t="s">
-        <v>1518</v>
+        <v>1208</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1209</v>
       </c>
       <c r="D352" t="s">
-        <v>1501</v>
+        <v>1210</v>
       </c>
       <c r="E352" t="s">
-        <v>1535</v>
+        <v>1211</v>
       </c>
       <c r="F352" t="s">
         <v>0</v>
@@ -13223,13 +13157,16 @@
         <v>8</v>
       </c>
       <c r="B353" t="s">
-        <v>1526</v>
+        <v>1212</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1213</v>
       </c>
       <c r="D353" t="s">
-        <v>1509</v>
+        <v>1214</v>
       </c>
       <c r="E353" t="s">
-        <v>1543</v>
+        <v>1215</v>
       </c>
       <c r="F353" t="s">
         <v>0</v>
@@ -13243,16 +13180,19 @@
         <v>8</v>
       </c>
       <c r="B354" t="s">
-        <v>1530</v>
+        <v>1216</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1217</v>
       </c>
       <c r="D354" t="s">
-        <v>1513</v>
+        <v>1218</v>
       </c>
       <c r="E354" t="s">
-        <v>1547</v>
+        <v>1219</v>
       </c>
       <c r="F354" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G354" t="s">
         <v>1323</v>
@@ -13263,19 +13203,19 @@
         <v>8</v>
       </c>
       <c r="B355" t="s">
-        <v>1184</v>
+        <v>1220</v>
       </c>
       <c r="C355" t="s">
-        <v>1185</v>
+        <v>1221</v>
       </c>
       <c r="D355" t="s">
-        <v>1186</v>
+        <v>1222</v>
       </c>
       <c r="E355" t="s">
-        <v>1187</v>
+        <v>1223</v>
       </c>
       <c r="F355" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G355" t="s">
         <v>1323</v>
@@ -13286,16 +13226,16 @@
         <v>8</v>
       </c>
       <c r="B356" t="s">
-        <v>1460</v>
+        <v>1224</v>
       </c>
       <c r="C356" t="s">
-        <v>1475</v>
+        <v>1225</v>
       </c>
       <c r="D356" t="s">
-        <v>1442</v>
+        <v>1226</v>
       </c>
       <c r="E356" t="s">
-        <v>1493</v>
+        <v>1227</v>
       </c>
       <c r="F356" t="s">
         <v>13</v>
@@ -13309,16 +13249,16 @@
         <v>8</v>
       </c>
       <c r="B357" t="s">
-        <v>1188</v>
+        <v>1228</v>
       </c>
       <c r="C357" t="s">
-        <v>1189</v>
+        <v>1229</v>
       </c>
       <c r="D357" t="s">
-        <v>1190</v>
+        <v>1230</v>
       </c>
       <c r="E357" t="s">
-        <v>1191</v>
+        <v>1231</v>
       </c>
       <c r="F357" t="s">
         <v>13</v>
@@ -13332,16 +13272,16 @@
         <v>8</v>
       </c>
       <c r="B358" t="s">
-        <v>1192</v>
+        <v>1232</v>
       </c>
       <c r="C358" t="s">
-        <v>1193</v>
+        <v>1233</v>
       </c>
       <c r="D358" t="s">
-        <v>1194</v>
+        <v>1234</v>
       </c>
       <c r="E358" t="s">
-        <v>1195</v>
+        <v>1235</v>
       </c>
       <c r="F358" t="s">
         <v>13</v>
@@ -13355,16 +13295,16 @@
         <v>8</v>
       </c>
       <c r="B359" t="s">
-        <v>1196</v>
+        <v>1236</v>
       </c>
       <c r="C359" t="s">
-        <v>1197</v>
+        <v>1237</v>
       </c>
       <c r="D359" t="s">
-        <v>1198</v>
+        <v>1238</v>
       </c>
       <c r="E359" t="s">
-        <v>1199</v>
+        <v>1239</v>
       </c>
       <c r="F359" t="s">
         <v>13</v>
@@ -13378,16 +13318,16 @@
         <v>8</v>
       </c>
       <c r="B360" t="s">
-        <v>1200</v>
+        <v>1342</v>
       </c>
       <c r="C360" t="s">
-        <v>1201</v>
+        <v>1417</v>
       </c>
       <c r="D360" t="s">
-        <v>1202</v>
+        <v>1333</v>
       </c>
       <c r="E360" t="s">
-        <v>1203</v>
+        <v>1428</v>
       </c>
       <c r="F360" t="s">
         <v>13</v>
@@ -13401,16 +13341,16 @@
         <v>8</v>
       </c>
       <c r="B361" t="s">
-        <v>1204</v>
+        <v>1240</v>
       </c>
       <c r="C361" t="s">
-        <v>1205</v>
+        <v>1241</v>
       </c>
       <c r="D361" t="s">
-        <v>1206</v>
+        <v>1242</v>
       </c>
       <c r="E361" t="s">
-        <v>1207</v>
+        <v>1243</v>
       </c>
       <c r="F361" t="s">
         <v>13</v>
@@ -13424,19 +13364,19 @@
         <v>8</v>
       </c>
       <c r="B362" t="s">
-        <v>1208</v>
+        <v>1244</v>
       </c>
       <c r="C362" t="s">
-        <v>1209</v>
+        <v>1245</v>
       </c>
       <c r="D362" t="s">
-        <v>1210</v>
+        <v>1246</v>
       </c>
       <c r="E362" t="s">
-        <v>1211</v>
+        <v>1247</v>
       </c>
       <c r="F362" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G362" t="s">
         <v>1323</v>
@@ -13447,19 +13387,19 @@
         <v>8</v>
       </c>
       <c r="B363" t="s">
-        <v>1212</v>
+        <v>1248</v>
       </c>
       <c r="C363" t="s">
-        <v>1213</v>
+        <v>1249</v>
       </c>
       <c r="D363" t="s">
-        <v>1214</v>
+        <v>1250</v>
       </c>
       <c r="E363" t="s">
-        <v>1215</v>
+        <v>1251</v>
       </c>
       <c r="F363" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G363" t="s">
         <v>1323</v>
@@ -13470,16 +13410,16 @@
         <v>8</v>
       </c>
       <c r="B364" t="s">
-        <v>1216</v>
+        <v>1461</v>
       </c>
       <c r="C364" t="s">
-        <v>1217</v>
+        <v>1476</v>
       </c>
       <c r="D364" t="s">
-        <v>1218</v>
+        <v>1443</v>
       </c>
       <c r="E364" t="s">
-        <v>1219</v>
+        <v>1494</v>
       </c>
       <c r="F364" t="s">
         <v>13</v>
@@ -13493,19 +13433,19 @@
         <v>8</v>
       </c>
       <c r="B365" t="s">
-        <v>1220</v>
+        <v>1252</v>
       </c>
       <c r="C365" t="s">
-        <v>1221</v>
+        <v>1253</v>
       </c>
       <c r="D365" t="s">
-        <v>1222</v>
+        <v>1254</v>
       </c>
       <c r="E365" t="s">
-        <v>1223</v>
+        <v>1255</v>
       </c>
       <c r="F365" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G365" t="s">
         <v>1323</v>
@@ -13516,16 +13456,16 @@
         <v>8</v>
       </c>
       <c r="B366" t="s">
-        <v>1224</v>
+        <v>1256</v>
       </c>
       <c r="C366" t="s">
-        <v>1225</v>
+        <v>1257</v>
       </c>
       <c r="D366" t="s">
-        <v>1226</v>
+        <v>1258</v>
       </c>
       <c r="E366" t="s">
-        <v>1227</v>
+        <v>1259</v>
       </c>
       <c r="F366" t="s">
         <v>13</v>
@@ -13539,16 +13479,16 @@
         <v>8</v>
       </c>
       <c r="B367" t="s">
-        <v>1228</v>
+        <v>1462</v>
       </c>
       <c r="C367" t="s">
-        <v>1229</v>
+        <v>1477</v>
       </c>
       <c r="D367" t="s">
-        <v>1230</v>
+        <v>1444</v>
       </c>
       <c r="E367" t="s">
-        <v>1231</v>
+        <v>1495</v>
       </c>
       <c r="F367" t="s">
         <v>13</v>
@@ -13562,16 +13502,16 @@
         <v>8</v>
       </c>
       <c r="B368" t="s">
-        <v>1232</v>
+        <v>1260</v>
       </c>
       <c r="C368" t="s">
-        <v>1233</v>
+        <v>1261</v>
       </c>
       <c r="D368" t="s">
-        <v>1234</v>
+        <v>1262</v>
       </c>
       <c r="E368" t="s">
-        <v>1235</v>
+        <v>1263</v>
       </c>
       <c r="F368" t="s">
         <v>13</v>
@@ -13585,16 +13525,16 @@
         <v>8</v>
       </c>
       <c r="B369" t="s">
-        <v>1236</v>
+        <v>1264</v>
       </c>
       <c r="C369" t="s">
-        <v>1237</v>
+        <v>1265</v>
       </c>
       <c r="D369" t="s">
-        <v>1238</v>
+        <v>1266</v>
       </c>
       <c r="E369" t="s">
-        <v>1239</v>
+        <v>1267</v>
       </c>
       <c r="F369" t="s">
         <v>13</v>
@@ -13608,16 +13548,16 @@
         <v>8</v>
       </c>
       <c r="B370" t="s">
-        <v>1342</v>
+        <v>1358</v>
       </c>
       <c r="C370" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="D370" t="s">
-        <v>1333</v>
+        <v>1376</v>
       </c>
       <c r="E370" t="s">
-        <v>1428</v>
+        <v>1394</v>
       </c>
       <c r="F370" t="s">
         <v>13</v>
@@ -13631,19 +13571,19 @@
         <v>8</v>
       </c>
       <c r="B371" t="s">
-        <v>1240</v>
+        <v>1268</v>
       </c>
       <c r="C371" t="s">
-        <v>1241</v>
+        <v>1269</v>
       </c>
       <c r="D371" t="s">
-        <v>1242</v>
+        <v>1270</v>
       </c>
       <c r="E371" t="s">
-        <v>1243</v>
+        <v>1271</v>
       </c>
       <c r="F371" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G371" t="s">
         <v>1323</v>
@@ -13654,16 +13594,16 @@
         <v>8</v>
       </c>
       <c r="B372" t="s">
-        <v>1244</v>
+        <v>1463</v>
       </c>
       <c r="C372" t="s">
-        <v>1245</v>
+        <v>1478</v>
       </c>
       <c r="D372" t="s">
-        <v>1246</v>
+        <v>1445</v>
       </c>
       <c r="E372" t="s">
-        <v>1247</v>
+        <v>1496</v>
       </c>
       <c r="F372" t="s">
         <v>13</v>
@@ -13677,16 +13617,16 @@
         <v>8</v>
       </c>
       <c r="B373" t="s">
-        <v>1248</v>
+        <v>1359</v>
       </c>
       <c r="C373" t="s">
-        <v>1249</v>
+        <v>1412</v>
       </c>
       <c r="D373" t="s">
-        <v>1250</v>
+        <v>1377</v>
       </c>
       <c r="E373" t="s">
-        <v>1251</v>
+        <v>1395</v>
       </c>
       <c r="F373" t="s">
         <v>13</v>
@@ -13700,16 +13640,16 @@
         <v>8</v>
       </c>
       <c r="B374" t="s">
-        <v>1461</v>
+        <v>1360</v>
       </c>
       <c r="C374" t="s">
-        <v>1476</v>
+        <v>1413</v>
       </c>
       <c r="D374" t="s">
-        <v>1443</v>
+        <v>1378</v>
       </c>
       <c r="E374" t="s">
-        <v>1494</v>
+        <v>1396</v>
       </c>
       <c r="F374" t="s">
         <v>13</v>
@@ -13723,16 +13663,16 @@
         <v>8</v>
       </c>
       <c r="B375" t="s">
-        <v>1252</v>
+        <v>1272</v>
       </c>
       <c r="C375" t="s">
-        <v>1253</v>
+        <v>1273</v>
       </c>
       <c r="D375" t="s">
-        <v>1254</v>
+        <v>1274</v>
       </c>
       <c r="E375" t="s">
-        <v>1255</v>
+        <v>1275</v>
       </c>
       <c r="F375" t="s">
         <v>13</v>
@@ -13746,16 +13686,16 @@
         <v>8</v>
       </c>
       <c r="B376" t="s">
-        <v>1256</v>
+        <v>1276</v>
       </c>
       <c r="C376" t="s">
-        <v>1257</v>
+        <v>1277</v>
       </c>
       <c r="D376" t="s">
-        <v>1258</v>
+        <v>1278</v>
       </c>
       <c r="E376" t="s">
-        <v>1259</v>
+        <v>1279</v>
       </c>
       <c r="F376" t="s">
         <v>13</v>
@@ -13769,16 +13709,16 @@
         <v>8</v>
       </c>
       <c r="B377" t="s">
-        <v>1462</v>
+        <v>1280</v>
       </c>
       <c r="C377" t="s">
-        <v>1477</v>
+        <v>1281</v>
       </c>
       <c r="D377" t="s">
-        <v>1444</v>
+        <v>1282</v>
       </c>
       <c r="E377" t="s">
-        <v>1495</v>
+        <v>1283</v>
       </c>
       <c r="F377" t="s">
         <v>13</v>
@@ -13792,16 +13732,16 @@
         <v>8</v>
       </c>
       <c r="B378" t="s">
-        <v>1260</v>
+        <v>1284</v>
       </c>
       <c r="C378" t="s">
-        <v>1261</v>
+        <v>1285</v>
       </c>
       <c r="D378" t="s">
-        <v>1262</v>
+        <v>1286</v>
       </c>
       <c r="E378" t="s">
-        <v>1263</v>
+        <v>1287</v>
       </c>
       <c r="F378" t="s">
         <v>13</v>
@@ -13815,16 +13755,16 @@
         <v>8</v>
       </c>
       <c r="B379" t="s">
-        <v>1264</v>
+        <v>1288</v>
       </c>
       <c r="C379" t="s">
-        <v>1265</v>
+        <v>1289</v>
       </c>
       <c r="D379" t="s">
-        <v>1266</v>
+        <v>1290</v>
       </c>
       <c r="E379" t="s">
-        <v>1267</v>
+        <v>1291</v>
       </c>
       <c r="F379" t="s">
         <v>13</v>
@@ -13838,16 +13778,16 @@
         <v>8</v>
       </c>
       <c r="B380" t="s">
-        <v>1358</v>
+        <v>1292</v>
       </c>
       <c r="C380" t="s">
-        <v>1411</v>
+        <v>1293</v>
       </c>
       <c r="D380" t="s">
-        <v>1376</v>
+        <v>1294</v>
       </c>
       <c r="E380" t="s">
-        <v>1394</v>
+        <v>1295</v>
       </c>
       <c r="F380" t="s">
         <v>13</v>
@@ -13861,19 +13801,19 @@
         <v>8</v>
       </c>
       <c r="B381" t="s">
-        <v>1268</v>
+        <v>1296</v>
       </c>
       <c r="C381" t="s">
-        <v>1269</v>
+        <v>1297</v>
       </c>
       <c r="D381" t="s">
-        <v>1270</v>
+        <v>1298</v>
       </c>
       <c r="E381" t="s">
-        <v>1271</v>
+        <v>1299</v>
       </c>
       <c r="F381" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G381" t="s">
         <v>1323</v>
@@ -13884,19 +13824,19 @@
         <v>8</v>
       </c>
       <c r="B382" t="s">
-        <v>1463</v>
+        <v>1300</v>
       </c>
       <c r="C382" t="s">
-        <v>1478</v>
+        <v>1301</v>
       </c>
       <c r="D382" t="s">
-        <v>1445</v>
+        <v>1302</v>
       </c>
       <c r="E382" t="s">
-        <v>1496</v>
+        <v>1303</v>
       </c>
       <c r="F382" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G382" t="s">
         <v>1323</v>
@@ -13907,19 +13847,16 @@
         <v>8</v>
       </c>
       <c r="B383" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C383" t="s">
-        <v>1412</v>
+        <v>1304</v>
       </c>
       <c r="D383" t="s">
-        <v>1377</v>
+        <v>1305</v>
       </c>
       <c r="E383" t="s">
-        <v>1395</v>
+        <v>1306</v>
       </c>
       <c r="F383" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G383" t="s">
         <v>1323</v>
@@ -13930,16 +13867,16 @@
         <v>8</v>
       </c>
       <c r="B384" t="s">
-        <v>1360</v>
+        <v>1307</v>
       </c>
       <c r="C384" t="s">
-        <v>1413</v>
+        <v>1308</v>
       </c>
       <c r="D384" t="s">
-        <v>1378</v>
+        <v>1309</v>
       </c>
       <c r="E384" t="s">
-        <v>1396</v>
+        <v>1310</v>
       </c>
       <c r="F384" t="s">
         <v>13</v>
@@ -13953,19 +13890,19 @@
         <v>8</v>
       </c>
       <c r="B385" t="s">
-        <v>1272</v>
+        <v>1311</v>
       </c>
       <c r="C385" t="s">
-        <v>1273</v>
+        <v>1312</v>
       </c>
       <c r="D385" t="s">
-        <v>1274</v>
+        <v>1313</v>
       </c>
       <c r="E385" t="s">
-        <v>1275</v>
+        <v>1314</v>
       </c>
       <c r="F385" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G385" t="s">
         <v>1323</v>
@@ -13976,16 +13913,16 @@
         <v>8</v>
       </c>
       <c r="B386" t="s">
-        <v>1276</v>
+        <v>1315</v>
       </c>
       <c r="C386" t="s">
-        <v>1277</v>
+        <v>1316</v>
       </c>
       <c r="D386" t="s">
-        <v>1278</v>
+        <v>1317</v>
       </c>
       <c r="E386" t="s">
-        <v>1279</v>
+        <v>1318</v>
       </c>
       <c r="F386" t="s">
         <v>13</v>
@@ -13999,16 +13936,16 @@
         <v>8</v>
       </c>
       <c r="B387" t="s">
-        <v>1280</v>
+        <v>1464</v>
       </c>
       <c r="C387" t="s">
-        <v>1281</v>
+        <v>1479</v>
       </c>
       <c r="D387" t="s">
-        <v>1282</v>
+        <v>1446</v>
       </c>
       <c r="E387" t="s">
-        <v>1283</v>
+        <v>1497</v>
       </c>
       <c r="F387" t="s">
         <v>13</v>
@@ -14022,16 +13959,16 @@
         <v>8</v>
       </c>
       <c r="B388" t="s">
-        <v>1284</v>
+        <v>1319</v>
       </c>
       <c r="C388" t="s">
-        <v>1285</v>
+        <v>1320</v>
       </c>
       <c r="D388" t="s">
-        <v>1286</v>
+        <v>1321</v>
       </c>
       <c r="E388" t="s">
-        <v>1287</v>
+        <v>1322</v>
       </c>
       <c r="F388" t="s">
         <v>13</v>
@@ -14045,16 +13982,16 @@
         <v>8</v>
       </c>
       <c r="B389" t="s">
-        <v>1288</v>
+        <v>1520</v>
       </c>
       <c r="C389" t="s">
-        <v>1289</v>
+        <v>1521</v>
       </c>
       <c r="D389" t="s">
-        <v>1290</v>
+        <v>1522</v>
       </c>
       <c r="E389" t="s">
-        <v>1291</v>
+        <v>1523</v>
       </c>
       <c r="F389" t="s">
         <v>13</v>
@@ -14068,16 +14005,16 @@
         <v>8</v>
       </c>
       <c r="B390" t="s">
-        <v>1292</v>
+        <v>1524</v>
       </c>
       <c r="C390" t="s">
-        <v>1293</v>
+        <v>1525</v>
       </c>
       <c r="D390" t="s">
-        <v>1294</v>
+        <v>1526</v>
       </c>
       <c r="E390" t="s">
-        <v>1295</v>
+        <v>1527</v>
       </c>
       <c r="F390" t="s">
         <v>13</v>
@@ -14091,16 +14028,16 @@
         <v>8</v>
       </c>
       <c r="B391" t="s">
-        <v>1296</v>
+        <v>1528</v>
       </c>
       <c r="C391" t="s">
-        <v>1297</v>
+        <v>1529</v>
       </c>
       <c r="D391" t="s">
-        <v>1298</v>
+        <v>1530</v>
       </c>
       <c r="E391" t="s">
-        <v>1299</v>
+        <v>1531</v>
       </c>
       <c r="F391" t="s">
         <v>13</v>
@@ -14114,16 +14051,13 @@
         <v>8</v>
       </c>
       <c r="B392" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C392" t="s">
-        <v>1301</v>
+        <v>1532</v>
       </c>
       <c r="D392" t="s">
-        <v>1302</v>
+        <v>1533</v>
       </c>
       <c r="E392" t="s">
-        <v>1303</v>
+        <v>1534</v>
       </c>
       <c r="F392" t="s">
         <v>0</v>
@@ -14137,13 +14071,13 @@
         <v>8</v>
       </c>
       <c r="B393" t="s">
-        <v>1304</v>
+        <v>1535</v>
       </c>
       <c r="D393" t="s">
-        <v>1305</v>
+        <v>1536</v>
       </c>
       <c r="E393" t="s">
-        <v>1306</v>
+        <v>1537</v>
       </c>
       <c r="F393" t="s">
         <v>0</v>
@@ -14157,16 +14091,16 @@
         <v>8</v>
       </c>
       <c r="B394" t="s">
-        <v>1307</v>
+        <v>1538</v>
       </c>
       <c r="C394" t="s">
-        <v>1308</v>
+        <v>1539</v>
       </c>
       <c r="D394" t="s">
-        <v>1309</v>
+        <v>1540</v>
       </c>
       <c r="E394" t="s">
-        <v>1310</v>
+        <v>1541</v>
       </c>
       <c r="F394" t="s">
         <v>13</v>
@@ -14180,19 +14114,19 @@
         <v>8</v>
       </c>
       <c r="B395" t="s">
-        <v>1311</v>
+        <v>1542</v>
       </c>
       <c r="C395" t="s">
-        <v>1312</v>
+        <v>1543</v>
       </c>
       <c r="D395" t="s">
-        <v>1313</v>
+        <v>1544</v>
       </c>
       <c r="E395" t="s">
-        <v>1314</v>
+        <v>1545</v>
       </c>
       <c r="F395" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G395" t="s">
         <v>1323</v>
@@ -14203,16 +14137,16 @@
         <v>8</v>
       </c>
       <c r="B396" t="s">
-        <v>1315</v>
+        <v>1546</v>
       </c>
       <c r="C396" t="s">
-        <v>1316</v>
+        <v>1547</v>
       </c>
       <c r="D396" t="s">
-        <v>1317</v>
+        <v>1548</v>
       </c>
       <c r="E396" t="s">
-        <v>1318</v>
+        <v>1549</v>
       </c>
       <c r="F396" t="s">
         <v>13</v>
@@ -14226,16 +14160,16 @@
         <v>8</v>
       </c>
       <c r="B397" t="s">
-        <v>1464</v>
+        <v>1550</v>
       </c>
       <c r="C397" t="s">
-        <v>1479</v>
+        <v>1551</v>
       </c>
       <c r="D397" t="s">
-        <v>1446</v>
+        <v>1552</v>
       </c>
       <c r="E397" t="s">
-        <v>1497</v>
+        <v>1553</v>
       </c>
       <c r="F397" t="s">
         <v>13</v>
@@ -14249,16 +14183,16 @@
         <v>8</v>
       </c>
       <c r="B398" t="s">
-        <v>1319</v>
+        <v>1554</v>
       </c>
       <c r="C398" t="s">
-        <v>1320</v>
+        <v>1555</v>
       </c>
       <c r="D398" t="s">
-        <v>1321</v>
+        <v>1556</v>
       </c>
       <c r="E398" t="s">
-        <v>1322</v>
+        <v>1557</v>
       </c>
       <c r="F398" t="s">
         <v>13</v>
@@ -14272,16 +14206,16 @@
         <v>8</v>
       </c>
       <c r="B399" t="s">
-        <v>1550</v>
+        <v>1558</v>
       </c>
       <c r="C399" t="s">
-        <v>1551</v>
+        <v>1559</v>
       </c>
       <c r="D399" t="s">
-        <v>1552</v>
+        <v>1560</v>
       </c>
       <c r="E399" t="s">
-        <v>1553</v>
+        <v>1561</v>
       </c>
       <c r="F399" t="s">
         <v>13</v>
@@ -14295,16 +14229,16 @@
         <v>8</v>
       </c>
       <c r="B400" t="s">
-        <v>1554</v>
+        <v>1562</v>
       </c>
       <c r="C400" t="s">
-        <v>1555</v>
+        <v>1563</v>
       </c>
       <c r="D400" t="s">
-        <v>1556</v>
+        <v>1564</v>
       </c>
       <c r="E400" t="s">
-        <v>1557</v>
+        <v>1565</v>
       </c>
       <c r="F400" t="s">
         <v>13</v>
@@ -14318,16 +14252,16 @@
         <v>8</v>
       </c>
       <c r="B401" t="s">
-        <v>1558</v>
+        <v>1566</v>
       </c>
       <c r="C401" t="s">
-        <v>1559</v>
+        <v>1567</v>
       </c>
       <c r="D401" t="s">
-        <v>1560</v>
+        <v>1568</v>
       </c>
       <c r="E401" t="s">
-        <v>1561</v>
+        <v>1569</v>
       </c>
       <c r="F401" t="s">
         <v>13</v>
@@ -14341,13 +14275,16 @@
         <v>8</v>
       </c>
       <c r="B402" t="s">
-        <v>1562</v>
+        <v>1570</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1571</v>
       </c>
       <c r="D402" t="s">
-        <v>1563</v>
+        <v>1572</v>
       </c>
       <c r="E402" t="s">
-        <v>1564</v>
+        <v>1573</v>
       </c>
       <c r="F402" t="s">
         <v>0</v>
@@ -14361,16 +14298,19 @@
         <v>8</v>
       </c>
       <c r="B403" t="s">
-        <v>1565</v>
+        <v>1574</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1575</v>
       </c>
       <c r="D403" t="s">
-        <v>1566</v>
+        <v>1576</v>
       </c>
       <c r="E403" t="s">
-        <v>1567</v>
+        <v>1577</v>
       </c>
       <c r="F403" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G403" t="s">
         <v>1323</v>
@@ -14381,19 +14321,16 @@
         <v>8</v>
       </c>
       <c r="B404" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C404" t="s">
-        <v>1569</v>
+        <v>1578</v>
       </c>
       <c r="D404" t="s">
-        <v>1570</v>
+        <v>1579</v>
       </c>
       <c r="E404" t="s">
-        <v>1571</v>
+        <v>1580</v>
       </c>
       <c r="F404" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G404" t="s">
         <v>1323</v>
@@ -14404,19 +14341,16 @@
         <v>8</v>
       </c>
       <c r="B405" t="s">
-        <v>1572</v>
-      </c>
-      <c r="C405" t="s">
-        <v>1573</v>
+        <v>1581</v>
       </c>
       <c r="D405" t="s">
-        <v>1574</v>
+        <v>1582</v>
       </c>
       <c r="E405" t="s">
-        <v>1575</v>
+        <v>1583</v>
       </c>
       <c r="F405" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G405" t="s">
         <v>1323</v>
@@ -14427,19 +14361,19 @@
         <v>8</v>
       </c>
       <c r="B406" t="s">
-        <v>1576</v>
+        <v>1584</v>
       </c>
       <c r="C406" t="s">
-        <v>1577</v>
+        <v>1585</v>
       </c>
       <c r="D406" t="s">
-        <v>1578</v>
+        <v>1586</v>
       </c>
       <c r="E406" t="s">
-        <v>1579</v>
+        <v>1587</v>
       </c>
       <c r="F406" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G406" t="s">
         <v>1323</v>
@@ -14450,19 +14384,16 @@
         <v>8</v>
       </c>
       <c r="B407" t="s">
-        <v>1580</v>
-      </c>
-      <c r="C407" t="s">
-        <v>1581</v>
+        <v>1588</v>
       </c>
       <c r="D407" t="s">
-        <v>1582</v>
+        <v>1589</v>
       </c>
       <c r="E407" t="s">
-        <v>1583</v>
+        <v>1590</v>
       </c>
       <c r="F407" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G407" t="s">
         <v>1323</v>
@@ -14473,19 +14404,19 @@
         <v>8</v>
       </c>
       <c r="B408" t="s">
-        <v>1584</v>
+        <v>1591</v>
       </c>
       <c r="C408" t="s">
-        <v>1585</v>
+        <v>1592</v>
       </c>
       <c r="D408" t="s">
-        <v>1586</v>
+        <v>1593</v>
       </c>
       <c r="E408" t="s">
-        <v>1587</v>
+        <v>1594</v>
       </c>
       <c r="F408" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G408" t="s">
         <v>1323</v>
@@ -14496,239 +14427,18 @@
         <v>8</v>
       </c>
       <c r="B409" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C409" t="s">
-        <v>1589</v>
+        <v>1595</v>
       </c>
       <c r="D409" t="s">
-        <v>1590</v>
+        <v>1596</v>
       </c>
       <c r="E409" t="s">
-        <v>1591</v>
+        <v>1597</v>
       </c>
       <c r="F409" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G409" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
-        <v>8</v>
-      </c>
-      <c r="B410" t="s">
-        <v>1592</v>
-      </c>
-      <c r="C410" t="s">
-        <v>1593</v>
-      </c>
-      <c r="D410" t="s">
-        <v>1594</v>
-      </c>
-      <c r="E410" t="s">
-        <v>1595</v>
-      </c>
-      <c r="F410" t="s">
-        <v>13</v>
-      </c>
-      <c r="G410" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
-        <v>8</v>
-      </c>
-      <c r="B411" t="s">
-        <v>1596</v>
-      </c>
-      <c r="C411" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D411" t="s">
-        <v>1598</v>
-      </c>
-      <c r="E411" t="s">
-        <v>1599</v>
-      </c>
-      <c r="F411" t="s">
-        <v>13</v>
-      </c>
-      <c r="G411" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
-        <v>8</v>
-      </c>
-      <c r="B412" t="s">
-        <v>1600</v>
-      </c>
-      <c r="C412" t="s">
-        <v>1601</v>
-      </c>
-      <c r="D412" t="s">
-        <v>1602</v>
-      </c>
-      <c r="E412" t="s">
-        <v>1603</v>
-      </c>
-      <c r="F412" t="s">
-        <v>0</v>
-      </c>
-      <c r="G412" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
-        <v>8</v>
-      </c>
-      <c r="B413" t="s">
-        <v>1604</v>
-      </c>
-      <c r="C413" t="s">
-        <v>1605</v>
-      </c>
-      <c r="D413" t="s">
-        <v>1606</v>
-      </c>
-      <c r="E413" t="s">
-        <v>1607</v>
-      </c>
-      <c r="F413" t="s">
-        <v>13</v>
-      </c>
-      <c r="G413" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
-        <v>8</v>
-      </c>
-      <c r="B414" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D414" t="s">
-        <v>1609</v>
-      </c>
-      <c r="E414" t="s">
-        <v>1610</v>
-      </c>
-      <c r="F414" t="s">
-        <v>0</v>
-      </c>
-      <c r="G414" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
-        <v>8</v>
-      </c>
-      <c r="B415" t="s">
-        <v>1611</v>
-      </c>
-      <c r="D415" t="s">
-        <v>1612</v>
-      </c>
-      <c r="E415" t="s">
-        <v>1613</v>
-      </c>
-      <c r="F415" t="s">
-        <v>0</v>
-      </c>
-      <c r="G415" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
-        <v>8</v>
-      </c>
-      <c r="B416" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C416" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D416" t="s">
-        <v>1616</v>
-      </c>
-      <c r="E416" t="s">
-        <v>1617</v>
-      </c>
-      <c r="F416" t="s">
-        <v>0</v>
-      </c>
-      <c r="G416" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
-        <v>8</v>
-      </c>
-      <c r="B417" t="s">
-        <v>1618</v>
-      </c>
-      <c r="D417" t="s">
-        <v>1619</v>
-      </c>
-      <c r="E417" t="s">
-        <v>1620</v>
-      </c>
-      <c r="F417" t="s">
-        <v>0</v>
-      </c>
-      <c r="G417" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
-        <v>8</v>
-      </c>
-      <c r="B418" t="s">
-        <v>1621</v>
-      </c>
-      <c r="C418" t="s">
-        <v>1622</v>
-      </c>
-      <c r="D418" t="s">
-        <v>1623</v>
-      </c>
-      <c r="E418" t="s">
-        <v>1624</v>
-      </c>
-      <c r="F418" t="s">
-        <v>0</v>
-      </c>
-      <c r="G418" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
-        <v>8</v>
-      </c>
-      <c r="B419" t="s">
-        <v>1625</v>
-      </c>
-      <c r="D419" t="s">
-        <v>1626</v>
-      </c>
-      <c r="E419" t="s">
-        <v>1627</v>
-      </c>
-      <c r="F419" t="s">
-        <v>0</v>
-      </c>
-      <c r="G419" t="s">
         <v>1323</v>
       </c>
     </row>
